--- a/Code/1/results/result1_1_final_summary.xlsx
+++ b/Code/1/results/result1_1_final_summary.xlsx
@@ -688,7 +688,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -700,10 +700,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>51.25</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>18.75</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -715,10 +715,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>43.6364</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -848,10 +848,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>54.9</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -863,7 +863,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>11.3636</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -987,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -999,7 +999,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -1008,7 +1008,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>31.7</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -1026,7 +1026,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -1141,13 +1141,13 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>52.75</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>19.25</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -1280,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>35.3526</v>
+        <v>68</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1289,7 +1289,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>32.6474</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -1422,10 +1422,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>48.3</v>
       </c>
       <c r="I7" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1440,7 +1440,7 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>6.7</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1570,13 +1570,13 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1700,7 +1700,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -1848,7 +1848,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>18.3921</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1863,13 +1863,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>41.6079</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -1990,7 +1990,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -2032,7 +2032,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -2138,7 +2138,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -2150,13 +2150,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>30.1474</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>4.8526</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -2295,10 +2295,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
         <v>20</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -2428,7 +2428,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -2461,10 +2461,10 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -2588,13 +2588,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -2724,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>20.2532</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -2742,7 +2742,7 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -2863,7 +2863,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -2878,10 +2878,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K17" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -3002,7 +3002,7 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -3020,7 +3020,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -3044,7 +3044,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -3165,10 +3165,10 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
         <v>55</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -3307,16 +3307,16 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="I20" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -3437,7 +3437,7 @@
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>22.4211</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -3452,13 +3452,13 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>27.5789</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>8.833299999999999</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -3470,7 +3470,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>41.1667</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -3588,7 +3588,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -3733,22 +3733,22 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
         <v>13</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -3890,19 +3890,19 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
         <v>15</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -4023,10 +4023,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>17.6079</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -4041,13 +4041,13 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0.3921</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -4068,7 +4068,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -4174,13 +4174,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -4207,10 +4207,10 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>7.3684</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>12.7158</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -4325,13 +4325,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -4358,7 +4358,7 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -4512,7 +4512,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>8.9125</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -4533,7 +4533,7 @@
         <v>0</v>
       </c>
       <c r="AD28" t="n">
-        <v>14.6</v>
+        <v>6.0875</v>
       </c>
       <c r="AE28" t="n">
         <v>0</v>
@@ -4545,7 +4545,7 @@
         <v>0</v>
       </c>
       <c r="AH28" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AI28" t="n">
         <v>0</v>
@@ -4663,16 +4663,16 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="Z29" t="n">
         <v>0</v>
       </c>
       <c r="AA29" t="n">
-        <v>1.9822</v>
+        <v>0</v>
       </c>
       <c r="AB29" t="n">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="AC29" t="n">
         <v>0</v>
@@ -4681,10 +4681,10 @@
         <v>0</v>
       </c>
       <c r="AE29" t="n">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="AF29" t="n">
-        <v>0.9067</v>
+        <v>0</v>
       </c>
       <c r="AG29" t="n">
         <v>0</v>
@@ -4693,7 +4693,7 @@
         <v>0</v>
       </c>
       <c r="AI29" t="n">
-        <v>0.9111</v>
+        <v>0</v>
       </c>
       <c r="AJ29" t="n">
         <v>0</v>
@@ -4702,10 +4702,10 @@
         <v>0</v>
       </c>
       <c r="AL29" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AM29" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AN29" t="n">
         <v>0</v>
@@ -4805,49 +4805,49 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL30" t="n">
         <v>14</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL30" t="n">
-        <v>0</v>
       </c>
       <c r="AM30" t="n">
         <v>0</v>
@@ -4968,10 +4968,10 @@
         <v>0</v>
       </c>
       <c r="AD31" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AE31" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AF31" t="n">
         <v>0</v>
@@ -5092,10 +5092,10 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>6.2</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -5134,13 +5134,13 @@
         <v>0</v>
       </c>
       <c r="AK32" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AL32" t="n">
         <v>0</v>
       </c>
       <c r="AM32" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AN32" t="n">
         <v>0</v>
@@ -5234,7 +5234,7 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -5258,7 +5258,7 @@
         <v>0</v>
       </c>
       <c r="AD33" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AE33" t="n">
         <v>0</v>
@@ -5279,7 +5279,7 @@
         <v>0</v>
       </c>
       <c r="AK33" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AL33" t="n">
         <v>0</v>
@@ -5382,10 +5382,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>19.18</v>
+        <v>5</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -5394,16 +5394,16 @@
         <v>0</v>
       </c>
       <c r="AA34" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AB34" t="n">
         <v>0</v>
       </c>
       <c r="AC34" t="n">
-        <v>2.72</v>
+        <v>0</v>
       </c>
       <c r="AD34" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AE34" t="n">
         <v>0</v>
@@ -5430,7 +5430,7 @@
         <v>0</v>
       </c>
       <c r="AM34" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AN34" t="n">
         <v>0</v>
@@ -5527,7 +5527,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>18.5522</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -5539,7 +5539,7 @@
         <v>0</v>
       </c>
       <c r="AA35" t="n">
-        <v>0.6428</v>
+        <v>0</v>
       </c>
       <c r="AB35" t="n">
         <v>0</v>
@@ -5560,16 +5560,16 @@
         <v>0</v>
       </c>
       <c r="AH35" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AI35" t="n">
         <v>0</v>
       </c>
       <c r="AJ35" t="n">
-        <v>0.305</v>
+        <v>0</v>
       </c>
       <c r="AK35" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AL35" t="n">
         <v>0</v>
@@ -7992,7 +7992,7 @@
         <v>0</v>
       </c>
       <c r="W52" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="X52" t="n">
         <v>0</v>
@@ -8137,7 +8137,7 @@
         <v>0</v>
       </c>
       <c r="W53" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="X53" t="n">
         <v>0</v>
@@ -8161,7 +8161,7 @@
         <v>0</v>
       </c>
       <c r="AE53" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AF53" t="n">
         <v>0</v>
@@ -8285,7 +8285,7 @@
         <v>0</v>
       </c>
       <c r="X54" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Y54" t="n">
         <v>0</v>
@@ -8303,7 +8303,7 @@
         <v>0</v>
       </c>
       <c r="AD54" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AE54" t="n">
         <v>0</v>
@@ -8466,7 +8466,7 @@
         <v>0</v>
       </c>
       <c r="AJ55" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AK55" t="n">
         <v>0</v>
@@ -12345,7 +12345,7 @@
         <v>0</v>
       </c>
       <c r="X82" t="n">
-        <v>13.7889</v>
+        <v>5</v>
       </c>
       <c r="Y82" t="n">
         <v>0</v>
@@ -12363,7 +12363,7 @@
         <v>0</v>
       </c>
       <c r="AD82" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AE82" t="n">
         <v>0</v>
@@ -12375,10 +12375,10 @@
         <v>0</v>
       </c>
       <c r="AH82" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AI82" t="n">
-        <v>0.8111</v>
+        <v>0</v>
       </c>
       <c r="AJ82" t="n">
         <v>0</v>
@@ -12390,7 +12390,7 @@
         <v>0</v>
       </c>
       <c r="AM82" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AN82" t="n">
         <v>0</v>
@@ -12487,7 +12487,7 @@
         <v>0</v>
       </c>
       <c r="W83" t="n">
-        <v>8.7639</v>
+        <v>9.0875</v>
       </c>
       <c r="X83" t="n">
         <v>0</v>
@@ -12502,7 +12502,7 @@
         <v>0</v>
       </c>
       <c r="AB83" t="n">
-        <v>1.2361</v>
+        <v>0</v>
       </c>
       <c r="AC83" t="n">
         <v>0</v>
@@ -12629,25 +12629,25 @@
         <v>0</v>
       </c>
       <c r="V84" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="W84" t="n">
         <v>0</v>
       </c>
       <c r="X84" t="n">
-        <v>6.3111</v>
+        <v>5</v>
       </c>
       <c r="Y84" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="Z84" t="n">
         <v>0</v>
       </c>
       <c r="AA84" t="n">
-        <v>2.725</v>
+        <v>0</v>
       </c>
       <c r="AB84" t="n">
-        <v>1.4639</v>
+        <v>0</v>
       </c>
       <c r="AC84" t="n">
         <v>0</v>
@@ -12656,10 +12656,10 @@
         <v>0</v>
       </c>
       <c r="AE84" t="n">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="AF84" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AG84" t="n">
         <v>0</v>
@@ -12777,7 +12777,7 @@
         <v>0</v>
       </c>
       <c r="W85" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="X85" t="n">
         <v>0</v>
@@ -12798,7 +12798,7 @@
         <v>0</v>
       </c>
       <c r="AD85" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AE85" t="n">
         <v>0</v>
@@ -12922,49 +12922,49 @@
         <v>0</v>
       </c>
       <c r="W86" t="n">
+        <v>0</v>
+      </c>
+      <c r="X86" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y86" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z86" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA86" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB86" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC86" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD86" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE86" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF86" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG86" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH86" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI86" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ86" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK86" t="n">
         <v>10</v>
-      </c>
-      <c r="X86" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y86" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z86" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA86" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB86" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC86" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD86" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE86" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF86" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG86" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH86" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI86" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ86" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK86" t="n">
-        <v>0</v>
       </c>
       <c r="AL86" t="n">
         <v>0</v>
@@ -13088,13 +13088,13 @@
         <v>0</v>
       </c>
       <c r="AD87" t="n">
-        <v>11.1933</v>
+        <v>0</v>
       </c>
       <c r="AE87" t="n">
         <v>0</v>
       </c>
       <c r="AF87" t="n">
-        <v>0.8067</v>
+        <v>0</v>
       </c>
       <c r="AG87" t="n">
         <v>0</v>
@@ -13109,7 +13109,7 @@
         <v>0</v>
       </c>
       <c r="AK87" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AL87" t="n">
         <v>0</v>
@@ -13209,10 +13209,10 @@
         <v>0</v>
       </c>
       <c r="V88" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W88" t="n">
-        <v>6.4933</v>
+        <v>0</v>
       </c>
       <c r="X88" t="n">
         <v>0</v>
@@ -13233,7 +13233,7 @@
         <v>0</v>
       </c>
       <c r="AD88" t="n">
-        <v>15.5067</v>
+        <v>6.0875</v>
       </c>
       <c r="AE88" t="n">
         <v>0</v>
@@ -13257,7 +13257,7 @@
         <v>0</v>
       </c>
       <c r="AL88" t="n">
-        <v>0</v>
+        <v>10.9125</v>
       </c>
       <c r="AM88" t="n">
         <v>0</v>
@@ -13357,13 +13357,13 @@
         <v>0</v>
       </c>
       <c r="W89" t="n">
-        <v>16.275</v>
+        <v>0</v>
       </c>
       <c r="X89" t="n">
         <v>0</v>
       </c>
       <c r="Y89" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="Z89" t="n">
         <v>0</v>
@@ -13375,13 +13375,13 @@
         <v>0</v>
       </c>
       <c r="AC89" t="n">
-        <v>2.72</v>
+        <v>0</v>
       </c>
       <c r="AD89" t="n">
         <v>0</v>
       </c>
       <c r="AE89" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AF89" t="n">
         <v>0</v>
@@ -13396,13 +13396,13 @@
         <v>0</v>
       </c>
       <c r="AJ89" t="n">
-        <v>0.905</v>
+        <v>0</v>
       </c>
       <c r="AK89" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AL89" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AM89" t="n">
         <v>0</v>
@@ -15822,10 +15822,10 @@
         <v>0</v>
       </c>
       <c r="W106" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="X106" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="Y106" t="n">
         <v>0</v>
@@ -15967,7 +15967,7 @@
         <v>0</v>
       </c>
       <c r="W107" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="X107" t="n">
         <v>0</v>
@@ -16115,7 +16115,7 @@
         <v>0</v>
       </c>
       <c r="X108" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Y108" t="n">
         <v>0</v>
@@ -16148,7 +16148,7 @@
         <v>0</v>
       </c>
       <c r="AI108" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AJ108" t="n">
         <v>0</v>
@@ -16281,7 +16281,7 @@
         <v>0</v>
       </c>
       <c r="AE109" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AF109" t="n">
         <v>0</v>
@@ -16290,7 +16290,7 @@
         <v>0</v>
       </c>
       <c r="AH109" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AI109" t="n">
         <v>0</v>
@@ -16609,10 +16609,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="I2" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -16745,7 +16745,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -16754,10 +16754,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>12.25</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>42.75</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -16890,19 +16890,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>35</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -17038,7 +17038,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>55.3</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -17047,7 +17047,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>72</v>
+        <v>5</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -17062,7 +17062,7 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>11.7</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -17189,7 +17189,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>51.6364</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -17210,7 +17210,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>56.7</v>
+        <v>16.3636</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -17219,7 +17219,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>11.3</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -17319,7 +17319,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -17337,19 +17337,19 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>14.3026</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>40.6974</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -17470,7 +17470,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -17503,13 +17503,13 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="R8" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -17630,10 +17630,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="K9" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -17754,10 +17754,10 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>35.6699</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>24.3301</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -17772,7 +17772,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -17899,7 +17899,7 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -17917,7 +17917,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -18065,7 +18065,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -18077,7 +18077,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -18213,13 +18213,13 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L13" t="n">
-        <v>13.4474</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>6.5526</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -18352,13 +18352,13 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>36.9</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>9.1</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -18494,10 +18494,10 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="I15" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -18784,10 +18784,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I17" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -18935,10 +18935,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="K18" t="n">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -19062,7 +19062,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>21.6699</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -19071,19 +19071,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>8.3301</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>30.5412</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>2.5921</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -19092,7 +19092,7 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>6.1667</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -19104,7 +19104,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>15.7</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -19204,7 +19204,7 @@
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -19231,7 +19231,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -19355,7 +19355,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>30.9474</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -19367,7 +19367,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -19376,7 +19376,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -19518,13 +19518,13 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -19545,7 +19545,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -19648,7 +19648,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -19666,7 +19666,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -19808,7 +19808,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -19835,10 +19835,10 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -19947,7 +19947,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>9.5</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -19956,7 +19956,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>8.5</v>
+        <v>5</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -19977,7 +19977,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>12.7158</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -20080,10 +20080,10 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -20098,7 +20098,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -20240,7 +20240,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -20249,7 +20249,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>12.6316</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -20264,7 +20264,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>7.3684</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -20424,7 +20424,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>14.8</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -20439,7 +20439,7 @@
         <v>0</v>
       </c>
       <c r="AB28" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AC28" t="n">
         <v>0</v>
@@ -20463,13 +20463,13 @@
         <v>0</v>
       </c>
       <c r="AJ28" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AK28" t="n">
         <v>0</v>
       </c>
       <c r="AL28" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AM28" t="n">
         <v>0</v>
@@ -20572,7 +20572,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>5.8067</v>
+        <v>5</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -20587,10 +20587,10 @@
         <v>0</v>
       </c>
       <c r="AC29" t="n">
-        <v>2.72</v>
+        <v>0</v>
       </c>
       <c r="AD29" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AE29" t="n">
         <v>0</v>
@@ -20602,13 +20602,13 @@
         <v>0</v>
       </c>
       <c r="AH29" t="n">
-        <v>0.7683</v>
+        <v>0</v>
       </c>
       <c r="AI29" t="n">
         <v>0</v>
       </c>
       <c r="AJ29" t="n">
-        <v>0.705</v>
+        <v>0</v>
       </c>
       <c r="AK29" t="n">
         <v>0</v>
@@ -20714,7 +20714,7 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>11.4572</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -20735,7 +20735,7 @@
         <v>0</v>
       </c>
       <c r="AD30" t="n">
-        <v>1.6317</v>
+        <v>0</v>
       </c>
       <c r="AE30" t="n">
         <v>0</v>
@@ -20750,13 +20750,13 @@
         <v>0</v>
       </c>
       <c r="AI30" t="n">
-        <v>0.9111</v>
+        <v>0</v>
       </c>
       <c r="AJ30" t="n">
         <v>0</v>
       </c>
       <c r="AK30" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AL30" t="n">
         <v>0</v>
@@ -20859,7 +20859,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>3.275</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -20871,7 +20871,7 @@
         <v>0</v>
       </c>
       <c r="AA31" t="n">
-        <v>2.725</v>
+        <v>0</v>
       </c>
       <c r="AB31" t="n">
         <v>0</v>
@@ -20880,7 +20880,7 @@
         <v>0</v>
       </c>
       <c r="AD31" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AE31" t="n">
         <v>0</v>
@@ -21025,10 +21025,10 @@
         <v>0</v>
       </c>
       <c r="AD32" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AE32" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AF32" t="n">
         <v>0</v>
@@ -21149,7 +21149,7 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -21194,7 +21194,7 @@
         <v>0</v>
       </c>
       <c r="AL33" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AM33" t="n">
         <v>0</v>
@@ -21297,19 +21297,19 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>14.8933</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="Z34" t="n">
         <v>0</v>
       </c>
       <c r="AA34" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AB34" t="n">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="AC34" t="n">
         <v>0</v>
@@ -21318,10 +21318,10 @@
         <v>0</v>
       </c>
       <c r="AE34" t="n">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="AF34" t="n">
-        <v>0.8067</v>
+        <v>0</v>
       </c>
       <c r="AG34" t="n">
         <v>0</v>
@@ -21333,10 +21333,10 @@
         <v>0</v>
       </c>
       <c r="AJ34" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AK34" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AL34" t="n">
         <v>0</v>
@@ -21439,7 +21439,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>10.0875</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -21460,7 +21460,7 @@
         <v>0</v>
       </c>
       <c r="AD35" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AE35" t="n">
         <v>0</v>
@@ -21487,7 +21487,7 @@
         <v>0</v>
       </c>
       <c r="AM35" t="n">
-        <v>0</v>
+        <v>9.9125</v>
       </c>
       <c r="AN35" t="n">
         <v>0</v>
@@ -23925,7 +23925,7 @@
         <v>0</v>
       </c>
       <c r="AD52" t="n">
-        <v>0.4683</v>
+        <v>0</v>
       </c>
       <c r="AE52" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="AH52" t="n">
-        <v>0.1317</v>
+        <v>0</v>
       </c>
       <c r="AI52" t="n">
         <v>0</v>
@@ -24070,13 +24070,13 @@
         <v>0</v>
       </c>
       <c r="AD53" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AE53" t="n">
         <v>0</v>
       </c>
       <c r="AF53" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AG53" t="n">
         <v>0</v>
@@ -24194,7 +24194,7 @@
         <v>0</v>
       </c>
       <c r="W54" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="X54" t="n">
         <v>0</v>
@@ -24339,7 +24339,7 @@
         <v>0</v>
       </c>
       <c r="W55" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="X55" t="n">
         <v>0</v>
@@ -24360,7 +24360,7 @@
         <v>0</v>
       </c>
       <c r="AD55" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AE55" t="n">
         <v>0</v>
@@ -28251,10 +28251,10 @@
         <v>0</v>
       </c>
       <c r="V82" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W82" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="X82" t="n">
         <v>0</v>
@@ -28299,7 +28299,7 @@
         <v>0</v>
       </c>
       <c r="AL82" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AM82" t="n">
         <v>0</v>
@@ -28402,7 +28402,7 @@
         <v>0</v>
       </c>
       <c r="X83" t="n">
-        <v>7.28</v>
+        <v>0</v>
       </c>
       <c r="Y83" t="n">
         <v>0</v>
@@ -28417,7 +28417,7 @@
         <v>0</v>
       </c>
       <c r="AC83" t="n">
-        <v>2.72</v>
+        <v>0</v>
       </c>
       <c r="AD83" t="n">
         <v>0</v>
@@ -28441,7 +28441,7 @@
         <v>0</v>
       </c>
       <c r="AK83" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AL83" t="n">
         <v>0</v>
@@ -28544,7 +28544,7 @@
         <v>0</v>
       </c>
       <c r="W84" t="n">
-        <v>12.5</v>
+        <v>9</v>
       </c>
       <c r="X84" t="n">
         <v>0</v>
@@ -28565,10 +28565,10 @@
         <v>0</v>
       </c>
       <c r="AD84" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AE84" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AF84" t="n">
         <v>0</v>
@@ -28689,7 +28689,7 @@
         <v>0</v>
       </c>
       <c r="W85" t="n">
-        <v>1.9322</v>
+        <v>0</v>
       </c>
       <c r="X85" t="n">
         <v>0</v>
@@ -28701,7 +28701,7 @@
         <v>0</v>
       </c>
       <c r="AA85" t="n">
-        <v>2.725</v>
+        <v>0</v>
       </c>
       <c r="AB85" t="n">
         <v>0</v>
@@ -28710,10 +28710,10 @@
         <v>0</v>
       </c>
       <c r="AD85" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AE85" t="n">
-        <v>0.3428</v>
+        <v>0</v>
       </c>
       <c r="AF85" t="n">
         <v>0</v>
@@ -28722,13 +28722,13 @@
         <v>0</v>
       </c>
       <c r="AH85" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="AI85" t="n">
         <v>0</v>
       </c>
       <c r="AJ85" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AK85" t="n">
         <v>0</v>
@@ -28855,31 +28855,31 @@
         <v>0</v>
       </c>
       <c r="AD86" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE86" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF86" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG86" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH86" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI86" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ86" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK86" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL86" t="n">
         <v>10</v>
-      </c>
-      <c r="AE86" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF86" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG86" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH86" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI86" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ86" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK86" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL86" t="n">
-        <v>0</v>
       </c>
       <c r="AM86" t="n">
         <v>0</v>
@@ -28979,10 +28979,10 @@
         <v>0</v>
       </c>
       <c r="W87" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="X87" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Y87" t="n">
         <v>0</v>
@@ -29024,7 +29024,7 @@
         <v>0</v>
       </c>
       <c r="AL87" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AM87" t="n">
         <v>0</v>
@@ -29127,10 +29127,10 @@
         <v>0</v>
       </c>
       <c r="X88" t="n">
-        <v>13.42</v>
+        <v>0</v>
       </c>
       <c r="Y88" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="Z88" t="n">
         <v>0</v>
@@ -29139,7 +29139,7 @@
         <v>0</v>
       </c>
       <c r="AB88" t="n">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="AC88" t="n">
         <v>0</v>
@@ -29148,10 +29148,10 @@
         <v>0</v>
       </c>
       <c r="AE88" t="n">
-        <v>2.3572</v>
+        <v>0</v>
       </c>
       <c r="AF88" t="n">
-        <v>0.9067</v>
+        <v>0</v>
       </c>
       <c r="AG88" t="n">
         <v>0</v>
@@ -29160,13 +29160,13 @@
         <v>0</v>
       </c>
       <c r="AI88" t="n">
-        <v>0.9111</v>
+        <v>0</v>
       </c>
       <c r="AJ88" t="n">
-        <v>0.805</v>
+        <v>0</v>
       </c>
       <c r="AK88" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AL88" t="n">
         <v>0</v>
@@ -29269,7 +29269,7 @@
         <v>0</v>
       </c>
       <c r="W89" t="n">
-        <v>0</v>
+        <v>6.0875</v>
       </c>
       <c r="X89" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="AD89" t="n">
-        <v>20</v>
+        <v>5.0875</v>
       </c>
       <c r="AE89" t="n">
         <v>0</v>
@@ -29317,7 +29317,7 @@
         <v>0</v>
       </c>
       <c r="AM89" t="n">
-        <v>0</v>
+        <v>8.824999999999999</v>
       </c>
       <c r="AN89" t="n">
         <v>0</v>
@@ -31755,7 +31755,7 @@
         <v>0</v>
       </c>
       <c r="AD106" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AE106" t="n">
         <v>0</v>
@@ -31900,7 +31900,7 @@
         <v>0</v>
       </c>
       <c r="AD107" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AE107" t="n">
         <v>0</v>
@@ -32024,7 +32024,7 @@
         <v>0</v>
       </c>
       <c r="W108" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="X108" t="n">
         <v>0</v>
@@ -32169,7 +32169,7 @@
         <v>0</v>
       </c>
       <c r="W109" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="X109" t="n">
         <v>0</v>
@@ -32521,16 +32521,16 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>13.9386</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>66.06140000000001</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -32651,10 +32651,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>26.2364</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>5.7</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -32675,7 +32675,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -32684,10 +32684,10 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>11.7</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>11.3636</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -32696,7 +32696,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -32811,10 +32811,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="I4" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -32947,7 +32947,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>56.6026</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -32956,7 +32956,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -32968,10 +32968,10 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>4.6474</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>10.75</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -33095,7 +33095,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>10.25</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -33104,7 +33104,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>68</v>
+        <v>57.75</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -33240,16 +33240,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>35.65</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>19.35</v>
       </c>
       <c r="I7" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -33391,10 +33391,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I8" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -33536,7 +33536,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -33557,7 +33557,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -33687,13 +33687,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>49.75</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>10.25</v>
       </c>
       <c r="L10" t="n">
-        <v>28.3</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -33702,7 +33702,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>31.7</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -33814,7 +33814,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -33835,7 +33835,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -33865,7 +33865,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -33974,13 +33974,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
         <v>35</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -34107,7 +34107,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>13.2105</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -34116,10 +34116,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>6.7895</v>
       </c>
       <c r="I13" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -34252,13 +34252,13 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -34273,7 +34273,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -34397,7 +34397,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>21.3974</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -34412,7 +34412,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>18.6026</v>
+        <v>40</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -34554,16 +34554,16 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>9.1447</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>13.8553</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -34575,7 +34575,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -34693,7 +34693,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -34714,13 +34714,13 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -34826,7 +34826,7 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -34844,7 +34844,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>49.5</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -34856,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>36.5</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -34971,13 +34971,13 @@
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>36.3828</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -35019,7 +35019,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>12.7158</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -35122,7 +35122,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -35137,7 +35137,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -35158,7 +35158,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -35282,10 +35282,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="K21" t="n">
-        <v>33.8333</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -35294,7 +35294,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>16.1667</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -35412,10 +35412,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -35424,13 +35424,13 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -35557,31 +35557,31 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
         <v>13</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -35705,7 +35705,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -35714,7 +35714,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -35850,7 +35850,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -35862,7 +35862,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -35871,7 +35871,7 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -36004,7 +36004,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -36028,16 +36028,16 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>10.2</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>7.3684</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>9.4316</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -36140,7 +36140,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>8.268700000000001</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -36149,7 +36149,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -36158,7 +36158,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>11.7313</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -36336,13 +36336,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="X28" t="n">
-        <v>14.3</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="Z28" t="n">
         <v>0</v>
@@ -36357,10 +36357,10 @@
         <v>0</v>
       </c>
       <c r="AD28" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AE28" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AF28" t="n">
         <v>0</v>
@@ -36478,7 +36478,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -36502,13 +36502,13 @@
         <v>0</v>
       </c>
       <c r="AD29" t="n">
-        <v>9.093299999999999</v>
+        <v>0</v>
       </c>
       <c r="AE29" t="n">
         <v>0</v>
       </c>
       <c r="AF29" t="n">
-        <v>0.9067</v>
+        <v>0</v>
       </c>
       <c r="AG29" t="n">
         <v>0</v>
@@ -36629,7 +36629,7 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>6.4</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -36638,10 +36638,10 @@
         <v>0</v>
       </c>
       <c r="AA30" t="n">
-        <v>2.0839</v>
+        <v>0</v>
       </c>
       <c r="AB30" t="n">
-        <v>1.9111</v>
+        <v>0</v>
       </c>
       <c r="AC30" t="n">
         <v>0</v>
@@ -36650,7 +36650,7 @@
         <v>0</v>
       </c>
       <c r="AE30" t="n">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="AF30" t="n">
         <v>0</v>
@@ -36665,13 +36665,13 @@
         <v>0</v>
       </c>
       <c r="AJ30" t="n">
-        <v>0.905</v>
+        <v>0</v>
       </c>
       <c r="AK30" t="n">
         <v>0</v>
       </c>
       <c r="AL30" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AM30" t="n">
         <v>0</v>
@@ -36771,7 +36771,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>5.0875</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -36789,10 +36789,10 @@
         <v>0</v>
       </c>
       <c r="AC31" t="n">
-        <v>2.72</v>
+        <v>0</v>
       </c>
       <c r="AD31" t="n">
-        <v>3.28</v>
+        <v>0</v>
       </c>
       <c r="AE31" t="n">
         <v>0</v>
@@ -36916,49 +36916,49 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK32" t="n">
         <v>10</v>
-      </c>
-      <c r="X32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK32" t="n">
-        <v>0</v>
       </c>
       <c r="AL32" t="n">
         <v>0</v>
@@ -37067,7 +37067,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="Z33" t="n">
         <v>0</v>
@@ -37082,7 +37082,7 @@
         <v>0</v>
       </c>
       <c r="AD33" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AE33" t="n">
         <v>0</v>
@@ -37094,7 +37094,7 @@
         <v>0</v>
       </c>
       <c r="AH33" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="AI33" t="n">
         <v>0</v>
@@ -37103,13 +37103,13 @@
         <v>0</v>
       </c>
       <c r="AK33" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AL33" t="n">
         <v>0</v>
       </c>
       <c r="AM33" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AN33" t="n">
         <v>0</v>
@@ -37206,10 +37206,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>12.6733</v>
+        <v>5</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -37227,7 +37227,7 @@
         <v>0</v>
       </c>
       <c r="AD34" t="n">
-        <v>9.326700000000001</v>
+        <v>5</v>
       </c>
       <c r="AE34" t="n">
         <v>0</v>
@@ -37251,7 +37251,7 @@
         <v>0</v>
       </c>
       <c r="AL34" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AM34" t="n">
         <v>0</v>
@@ -37351,7 +37351,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>19.8589</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -37363,7 +37363,7 @@
         <v>0</v>
       </c>
       <c r="AA35" t="n">
-        <v>0.1411</v>
+        <v>0</v>
       </c>
       <c r="AB35" t="n">
         <v>0</v>
@@ -37393,10 +37393,10 @@
         <v>0</v>
       </c>
       <c r="AK35" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AL35" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AM35" t="n">
         <v>0</v>
@@ -39816,7 +39816,7 @@
         <v>0</v>
       </c>
       <c r="W52" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="X52" t="n">
         <v>0</v>
@@ -39831,7 +39831,7 @@
         <v>0</v>
       </c>
       <c r="AB52" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AC52" t="n">
         <v>0</v>
@@ -39852,7 +39852,7 @@
         <v>0</v>
       </c>
       <c r="AI52" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AJ52" t="n">
         <v>0</v>
@@ -39967,13 +39967,13 @@
         <v>0</v>
       </c>
       <c r="Y53" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="Z53" t="n">
         <v>0</v>
       </c>
       <c r="AA53" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AB53" t="n">
         <v>0</v>
@@ -40142,7 +40142,7 @@
         <v>0</v>
       </c>
       <c r="AI54" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AJ54" t="n">
         <v>0</v>
@@ -40266,7 +40266,7 @@
         <v>0</v>
       </c>
       <c r="AB55" t="n">
-        <v>0.3889</v>
+        <v>0</v>
       </c>
       <c r="AC55" t="n">
         <v>0</v>
@@ -40287,7 +40287,7 @@
         <v>0</v>
       </c>
       <c r="AI55" t="n">
-        <v>0.2111</v>
+        <v>0</v>
       </c>
       <c r="AJ55" t="n">
         <v>0</v>
@@ -44169,10 +44169,10 @@
         <v>0</v>
       </c>
       <c r="X82" t="n">
-        <v>14.1</v>
+        <v>5</v>
       </c>
       <c r="Y82" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="Z82" t="n">
         <v>0</v>
@@ -44190,7 +44190,7 @@
         <v>0</v>
       </c>
       <c r="AE82" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AF82" t="n">
         <v>0</v>
@@ -44208,7 +44208,7 @@
         <v>0</v>
       </c>
       <c r="AK82" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AL82" t="n">
         <v>0</v>
@@ -44308,10 +44308,10 @@
         <v>0</v>
       </c>
       <c r="V83" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W83" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="X83" t="n">
         <v>0</v>
@@ -44332,7 +44332,7 @@
         <v>0</v>
       </c>
       <c r="AD83" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AE83" t="n">
         <v>0</v>
@@ -44459,7 +44459,7 @@
         <v>0</v>
       </c>
       <c r="X84" t="n">
-        <v>5.8633</v>
+        <v>0</v>
       </c>
       <c r="Y84" t="n">
         <v>0</v>
@@ -44468,7 +44468,7 @@
         <v>0</v>
       </c>
       <c r="AA84" t="n">
-        <v>2.725</v>
+        <v>0</v>
       </c>
       <c r="AB84" t="n">
         <v>0</v>
@@ -44480,28 +44480,28 @@
         <v>0</v>
       </c>
       <c r="AE84" t="n">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="AF84" t="n">
-        <v>0.9067</v>
+        <v>0</v>
       </c>
       <c r="AG84" t="n">
         <v>0</v>
       </c>
       <c r="AH84" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="AI84" t="n">
         <v>0</v>
       </c>
       <c r="AJ84" t="n">
-        <v>0.905</v>
+        <v>0</v>
       </c>
       <c r="AK84" t="n">
         <v>0</v>
       </c>
       <c r="AL84" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AM84" t="n">
         <v>0</v>
@@ -44622,7 +44622,7 @@
         <v>0</v>
       </c>
       <c r="AD85" t="n">
-        <v>5.7889</v>
+        <v>0</v>
       </c>
       <c r="AE85" t="n">
         <v>0</v>
@@ -44637,7 +44637,7 @@
         <v>0</v>
       </c>
       <c r="AI85" t="n">
-        <v>0.2111</v>
+        <v>0</v>
       </c>
       <c r="AJ85" t="n">
         <v>0</v>
@@ -44649,7 +44649,7 @@
         <v>0</v>
       </c>
       <c r="AM85" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AN85" t="n">
         <v>0</v>
@@ -44746,7 +44746,7 @@
         <v>0</v>
       </c>
       <c r="W86" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="X86" t="n">
         <v>0</v>
@@ -44767,7 +44767,7 @@
         <v>0</v>
       </c>
       <c r="AD86" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AE86" t="n">
         <v>0</v>
@@ -44788,7 +44788,7 @@
         <v>0</v>
       </c>
       <c r="AK86" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AL86" t="n">
         <v>0</v>
@@ -44906,13 +44906,13 @@
         <v>0</v>
       </c>
       <c r="AB87" t="n">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="AC87" t="n">
-        <v>2.72</v>
+        <v>0</v>
       </c>
       <c r="AD87" t="n">
-        <v>7.18</v>
+        <v>6.0875</v>
       </c>
       <c r="AE87" t="n">
         <v>0</v>
@@ -44933,7 +44933,7 @@
         <v>0</v>
       </c>
       <c r="AK87" t="n">
-        <v>0</v>
+        <v>5.9125</v>
       </c>
       <c r="AL87" t="n">
         <v>0</v>
@@ -45036,7 +45036,7 @@
         <v>0</v>
       </c>
       <c r="W88" t="n">
-        <v>12.2689</v>
+        <v>10.0875</v>
       </c>
       <c r="X88" t="n">
         <v>0</v>
@@ -45057,7 +45057,7 @@
         <v>0</v>
       </c>
       <c r="AD88" t="n">
-        <v>9.7311</v>
+        <v>0</v>
       </c>
       <c r="AE88" t="n">
         <v>0</v>
@@ -45081,7 +45081,7 @@
         <v>0</v>
       </c>
       <c r="AL88" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AM88" t="n">
         <v>0</v>
@@ -45181,10 +45181,10 @@
         <v>0</v>
       </c>
       <c r="W89" t="n">
-        <v>19.8633</v>
+        <v>0</v>
       </c>
       <c r="X89" t="n">
-        <v>0.1367</v>
+        <v>5</v>
       </c>
       <c r="Y89" t="n">
         <v>0</v>
@@ -45223,7 +45223,7 @@
         <v>0</v>
       </c>
       <c r="AK89" t="n">
-        <v>0</v>
+        <v>14.0875</v>
       </c>
       <c r="AL89" t="n">
         <v>0</v>
@@ -47646,7 +47646,7 @@
         <v>0</v>
       </c>
       <c r="W106" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="X106" t="n">
         <v>0</v>
@@ -47682,7 +47682,7 @@
         <v>0</v>
       </c>
       <c r="AI106" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AJ106" t="n">
         <v>0</v>
@@ -47806,7 +47806,7 @@
         <v>0</v>
       </c>
       <c r="AB107" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AC107" t="n">
         <v>0</v>
@@ -47972,7 +47972,7 @@
         <v>0</v>
       </c>
       <c r="AI108" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AJ108" t="n">
         <v>0</v>
@@ -48084,7 +48084,7 @@
         <v>0</v>
       </c>
       <c r="X109" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="Y109" t="n">
         <v>0</v>
@@ -48427,16 +48427,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>16.6</v>
       </c>
       <c r="I2" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -48451,7 +48451,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -48569,7 +48569,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>55</v>
+        <v>13.15</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -48578,7 +48578,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>41.85</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -48726,7 +48726,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -48744,7 +48744,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -48871,7 +48871,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>72</v>
+        <v>55.6364</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -48889,7 +48889,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>16.3636</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -49013,7 +49013,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -49022,7 +49022,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -49143,13 +49143,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>6.1864</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>29.9</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -49161,10 +49161,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>42.1136</v>
       </c>
       <c r="J7" t="n">
-        <v>1.436</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -49173,10 +49173,10 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>23.664</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>6.7</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -49309,10 +49309,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>49.1053</v>
+        <v>55</v>
       </c>
       <c r="K8" t="n">
-        <v>10.8947</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -49330,7 +49330,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -49433,25 +49433,25 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>14.2405</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>10.7595</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>24.9</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -49593,10 +49593,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I10" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -49723,13 +49723,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -49874,7 +49874,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>25.1053</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -49892,7 +49892,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -49910,7 +49910,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>9.8947</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -50016,7 +50016,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>14.8947</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -50040,10 +50040,10 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>11.414</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>8.586</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -50055,7 +50055,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>5.1053</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -50173,16 +50173,16 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>21.6842</v>
       </c>
       <c r="I14" t="n">
-        <v>42.3</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>24.3158</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -50191,7 +50191,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -50303,7 +50303,7 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>14.3158</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -50321,13 +50321,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>18.3</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>25.6842</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -50339,7 +50339,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>21.7</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -50451,7 +50451,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -50463,7 +50463,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -50493,7 +50493,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -50599,7 +50599,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -50608,10 +50608,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I17" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -50759,19 +50759,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>67.5333</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>4.4667</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -50783,7 +50783,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -50886,7 +50886,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>8.1053</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -50901,10 +50901,10 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>46.8947</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -51052,13 +51052,13 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>14.2857</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -51173,7 +51173,7 @@
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -51191,7 +51191,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -51212,7 +51212,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -51348,7 +51348,7 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -51369,7 +51369,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>9.4316</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -51472,7 +51472,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -51496,7 +51496,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -51614,13 +51614,13 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
         <v>15</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -51759,7 +51759,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -51798,7 +51798,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>7.3684</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -51807,7 +51807,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -51904,10 +51904,10 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
         <v>27</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -52076,7 +52076,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -52091,7 +52091,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>12.7158</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -52260,7 +52260,7 @@
         <v>0</v>
       </c>
       <c r="AA28" t="n">
-        <v>2.725</v>
+        <v>0</v>
       </c>
       <c r="AB28" t="n">
         <v>0</v>
@@ -52269,19 +52269,19 @@
         <v>0</v>
       </c>
       <c r="AD28" t="n">
-        <v>10.5683</v>
+        <v>0</v>
       </c>
       <c r="AE28" t="n">
         <v>0</v>
       </c>
       <c r="AF28" t="n">
-        <v>0.8067</v>
+        <v>0</v>
       </c>
       <c r="AG28" t="n">
         <v>0</v>
       </c>
       <c r="AH28" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="AI28" t="n">
         <v>0</v>
@@ -52293,7 +52293,7 @@
         <v>0</v>
       </c>
       <c r="AL28" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AM28" t="n">
         <v>0</v>
@@ -52393,7 +52393,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -52414,7 +52414,7 @@
         <v>0</v>
       </c>
       <c r="AD29" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AE29" t="n">
         <v>0</v>
@@ -52438,7 +52438,7 @@
         <v>0</v>
       </c>
       <c r="AL29" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AM29" t="n">
         <v>0</v>
@@ -52538,49 +52538,49 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
+        <v>0</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK30" t="n">
         <v>14</v>
-      </c>
-      <c r="X30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>0</v>
       </c>
       <c r="AL30" t="n">
         <v>0</v>
@@ -52683,7 +52683,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>5.9</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -52704,13 +52704,13 @@
         <v>0</v>
       </c>
       <c r="AD31" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AE31" t="n">
         <v>0</v>
       </c>
       <c r="AF31" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AG31" t="n">
         <v>0</v>
@@ -52825,16 +52825,16 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="Z32" t="n">
         <v>0</v>
@@ -52843,13 +52843,13 @@
         <v>0</v>
       </c>
       <c r="AB32" t="n">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="AC32" t="n">
-        <v>2.5522</v>
+        <v>0</v>
       </c>
       <c r="AD32" t="n">
-        <v>2.0317</v>
+        <v>0</v>
       </c>
       <c r="AE32" t="n">
         <v>0</v>
@@ -52864,10 +52864,10 @@
         <v>0</v>
       </c>
       <c r="AI32" t="n">
-        <v>0.9111</v>
+        <v>0</v>
       </c>
       <c r="AJ32" t="n">
-        <v>0.905</v>
+        <v>0</v>
       </c>
       <c r="AK32" t="n">
         <v>0</v>
@@ -52973,10 +52973,10 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>11.6322</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0.3678</v>
+        <v>7</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -53018,7 +53018,7 @@
         <v>0</v>
       </c>
       <c r="AL33" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AM33" t="n">
         <v>0</v>
@@ -53121,7 +53121,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>19.7322</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -53136,13 +53136,13 @@
         <v>0</v>
       </c>
       <c r="AC34" t="n">
-        <v>0.1678</v>
+        <v>0</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
       </c>
       <c r="AE34" t="n">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="AF34" t="n">
         <v>0</v>
@@ -53160,7 +53160,7 @@
         <v>0</v>
       </c>
       <c r="AK34" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AL34" t="n">
         <v>0</v>
@@ -53263,7 +53263,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>10.0875</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -53284,7 +53284,7 @@
         <v>0</v>
       </c>
       <c r="AD35" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AE35" t="n">
         <v>0</v>
@@ -53311,7 +53311,7 @@
         <v>0</v>
       </c>
       <c r="AM35" t="n">
-        <v>0</v>
+        <v>9.9125</v>
       </c>
       <c r="AN35" t="n">
         <v>0</v>
@@ -55752,7 +55752,7 @@
         <v>0</v>
       </c>
       <c r="AE52" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AF52" t="n">
         <v>0</v>
@@ -55873,7 +55873,7 @@
         <v>0</v>
       </c>
       <c r="W53" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="X53" t="n">
         <v>0</v>
@@ -56021,7 +56021,7 @@
         <v>0</v>
       </c>
       <c r="X54" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="Y54" t="n">
         <v>0</v>
@@ -56163,7 +56163,7 @@
         <v>0</v>
       </c>
       <c r="W55" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="X55" t="n">
         <v>0</v>
@@ -56184,7 +56184,7 @@
         <v>0</v>
       </c>
       <c r="AD55" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AE55" t="n">
         <v>0</v>
@@ -60099,7 +60099,7 @@
         <v>0</v>
       </c>
       <c r="AD82" t="n">
-        <v>13.1839</v>
+        <v>0</v>
       </c>
       <c r="AE82" t="n">
         <v>0</v>
@@ -60114,19 +60114,19 @@
         <v>0</v>
       </c>
       <c r="AI82" t="n">
-        <v>0.9111</v>
+        <v>0</v>
       </c>
       <c r="AJ82" t="n">
-        <v>0.905</v>
+        <v>0</v>
       </c>
       <c r="AK82" t="n">
         <v>0</v>
       </c>
       <c r="AL82" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AM82" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AN82" t="n">
         <v>0</v>
@@ -60223,7 +60223,7 @@
         <v>0</v>
       </c>
       <c r="W83" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="X83" t="n">
         <v>0</v>
@@ -60247,7 +60247,7 @@
         <v>0</v>
       </c>
       <c r="AE83" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AF83" t="n">
         <v>0</v>
@@ -60268,7 +60268,7 @@
         <v>0</v>
       </c>
       <c r="AL83" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AM83" t="n">
         <v>0</v>
@@ -60368,10 +60368,10 @@
         <v>0</v>
       </c>
       <c r="W84" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="X84" t="n">
-        <v>0</v>
+        <v>7.0875</v>
       </c>
       <c r="Y84" t="n">
         <v>0</v>
@@ -60389,7 +60389,7 @@
         <v>0</v>
       </c>
       <c r="AD84" t="n">
-        <v>0</v>
+        <v>6.0875</v>
       </c>
       <c r="AE84" t="n">
         <v>0</v>
@@ -60513,7 +60513,7 @@
         <v>0</v>
       </c>
       <c r="W85" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="X85" t="n">
         <v>0</v>
@@ -60534,7 +60534,7 @@
         <v>0</v>
       </c>
       <c r="AD85" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AE85" t="n">
         <v>0</v>
@@ -60655,13 +60655,13 @@
         <v>0</v>
       </c>
       <c r="V86" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W86" t="n">
         <v>0</v>
       </c>
       <c r="X86" t="n">
-        <v>4.1639</v>
+        <v>0</v>
       </c>
       <c r="Y86" t="n">
         <v>0</v>
@@ -60679,7 +60679,7 @@
         <v>0</v>
       </c>
       <c r="AD86" t="n">
-        <v>4.9361</v>
+        <v>0</v>
       </c>
       <c r="AE86" t="n">
         <v>0</v>
@@ -60691,7 +60691,7 @@
         <v>0</v>
       </c>
       <c r="AH86" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="AI86" t="n">
         <v>0</v>
@@ -60703,7 +60703,7 @@
         <v>0</v>
       </c>
       <c r="AL86" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AM86" t="n">
         <v>0</v>
@@ -60800,13 +60800,13 @@
         <v>0</v>
       </c>
       <c r="V87" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W87" t="n">
-        <v>11.4322</v>
+        <v>0</v>
       </c>
       <c r="X87" t="n">
-        <v>0.4678</v>
+        <v>0</v>
       </c>
       <c r="Y87" t="n">
         <v>0</v>
@@ -60827,7 +60827,7 @@
         <v>0</v>
       </c>
       <c r="AE87" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AF87" t="n">
         <v>0</v>
@@ -60848,7 +60848,7 @@
         <v>0</v>
       </c>
       <c r="AL87" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AM87" t="n">
         <v>0</v>
@@ -60951,16 +60951,16 @@
         <v>0</v>
       </c>
       <c r="X88" t="n">
-        <v>16.0683</v>
+        <v>0</v>
       </c>
       <c r="Y88" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="Z88" t="n">
         <v>0</v>
       </c>
       <c r="AA88" t="n">
-        <v>1.625</v>
+        <v>0</v>
       </c>
       <c r="AB88" t="n">
         <v>0</v>
@@ -60972,10 +60972,10 @@
         <v>0</v>
       </c>
       <c r="AE88" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="AF88" t="n">
-        <v>0.9067</v>
+        <v>0</v>
       </c>
       <c r="AG88" t="n">
         <v>0</v>
@@ -60990,7 +60990,7 @@
         <v>0</v>
       </c>
       <c r="AK88" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AL88" t="n">
         <v>0</v>
@@ -61093,7 +61093,7 @@
         <v>0</v>
       </c>
       <c r="W89" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="X89" t="n">
         <v>0</v>
@@ -61108,13 +61108,13 @@
         <v>0</v>
       </c>
       <c r="AB89" t="n">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="AC89" t="n">
-        <v>2.72</v>
+        <v>0</v>
       </c>
       <c r="AD89" t="n">
-        <v>14.58</v>
+        <v>0</v>
       </c>
       <c r="AE89" t="n">
         <v>0</v>
@@ -61141,7 +61141,7 @@
         <v>0</v>
       </c>
       <c r="AM89" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AN89" t="n">
         <v>0</v>
@@ -63570,7 +63570,7 @@
         <v>0</v>
       </c>
       <c r="AA106" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AB106" t="n">
         <v>0</v>
@@ -63703,7 +63703,7 @@
         <v>0</v>
       </c>
       <c r="W107" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="X107" t="n">
         <v>0</v>
@@ -63860,7 +63860,7 @@
         <v>0</v>
       </c>
       <c r="AA108" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AB108" t="n">
         <v>0</v>
@@ -63872,7 +63872,7 @@
         <v>0</v>
       </c>
       <c r="AE108" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AF108" t="n">
         <v>0</v>
@@ -63993,7 +63993,7 @@
         <v>0</v>
       </c>
       <c r="W109" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="X109" t="n">
         <v>0</v>
@@ -64348,25 +64348,25 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>63.6364</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>45.8947</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>34.1053</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>16.3636</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -64475,7 +64475,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>16.2864</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -64484,7 +64484,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>25.9</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -64493,10 +64493,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>12.8136</v>
       </c>
       <c r="J3" t="n">
-        <v>35.5412</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -64508,7 +64508,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>19.4588</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -64626,7 +64626,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>12.8526</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -64635,10 +64635,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="I4" t="n">
-        <v>22.1474</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -64780,7 +64780,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -64789,7 +64789,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -64928,7 +64928,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>68</v>
+        <v>56.3</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -64943,7 +64943,7 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>11.7</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -65064,7 +65064,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -65073,7 +65073,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -65218,16 +65218,16 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -65348,7 +65348,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>16.2632</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -65372,7 +65372,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -65399,7 +65399,7 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -65490,19 +65490,19 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>13.3684</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -65511,7 +65511,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>21.6316</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -65653,10 +65653,10 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>8.300000000000001</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -65671,7 +65671,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>36.7</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -65795,13 +65795,13 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>22.4211</v>
       </c>
       <c r="I12" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>12.5789</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -65931,7 +65931,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>5.3158</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -65946,7 +65946,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>14.6842</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -65961,7 +65961,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -66070,13 +66070,13 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>24.1474</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -66100,7 +66100,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>13.1447</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -66115,7 +66115,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>8.7079</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -66221,7 +66221,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -66230,7 +66230,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -66254,7 +66254,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -66360,13 +66360,13 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -66508,10 +66508,10 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E17" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -66656,7 +66656,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>48.6316</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -66668,7 +66668,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -66689,13 +66689,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>7.3684</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -66810,7 +66810,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -66828,7 +66828,7 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>21.7079</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -66840,7 +66840,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>33.2921</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -66958,10 +66958,10 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
         <v>44</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -67106,13 +67106,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -67245,19 +67245,19 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -67278,7 +67278,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -67399,10 +67399,10 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>5.7895</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -67417,7 +67417,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -67538,7 +67538,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -67547,10 +67547,10 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>9.7158</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -67683,7 +67683,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>14.0526</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -67692,10 +67692,10 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>3.9474</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>10.2842</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -67713,7 +67713,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>7.7158</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -67834,7 +67834,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -67852,7 +67852,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>16.0526</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -67861,7 +67861,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>9.4316</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -67958,13 +67958,13 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -67973,7 +67973,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -68160,10 +68160,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>12.3433</v>
+        <v>10</v>
       </c>
       <c r="X28" t="n">
-        <v>2.6567</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -68184,7 +68184,7 @@
         <v>0</v>
       </c>
       <c r="AE28" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AF28" t="n">
         <v>0</v>
@@ -68305,10 +68305,10 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="X29" t="n">
-        <v>1.5433</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -68326,10 +68326,10 @@
         <v>0</v>
       </c>
       <c r="AD29" t="n">
-        <v>5.9517</v>
+        <v>0</v>
       </c>
       <c r="AE29" t="n">
-        <v>2.505</v>
+        <v>0</v>
       </c>
       <c r="AF29" t="n">
         <v>0</v>
@@ -68353,7 +68353,7 @@
         <v>0</v>
       </c>
       <c r="AM29" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AN29" t="n">
         <v>0</v>
@@ -68447,13 +68447,13 @@
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>11.4</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -68465,7 +68465,7 @@
         <v>0</v>
       </c>
       <c r="AB30" t="n">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="AC30" t="n">
         <v>0</v>
@@ -68495,7 +68495,7 @@
         <v>0</v>
       </c>
       <c r="AL30" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AM30" t="n">
         <v>0</v>
@@ -68598,7 +68598,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>5.1</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -68628,7 +68628,7 @@
         <v>0</v>
       </c>
       <c r="AH31" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="AI31" t="n">
         <v>0</v>
@@ -68637,7 +68637,7 @@
         <v>0</v>
       </c>
       <c r="AK31" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AL31" t="n">
         <v>0</v>
@@ -68740,7 +68740,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -68761,7 +68761,7 @@
         <v>0</v>
       </c>
       <c r="AD32" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AE32" t="n">
         <v>0</v>
@@ -68782,7 +68782,7 @@
         <v>0</v>
       </c>
       <c r="AK32" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AL32" t="n">
         <v>0</v>
@@ -68891,28 +68891,28 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="Z33" t="n">
         <v>0</v>
       </c>
       <c r="AA33" t="n">
-        <v>2.725</v>
+        <v>0</v>
       </c>
       <c r="AB33" t="n">
         <v>0</v>
       </c>
       <c r="AC33" t="n">
-        <v>2.72</v>
+        <v>0</v>
       </c>
       <c r="AD33" t="n">
-        <v>4.7483</v>
+        <v>0</v>
       </c>
       <c r="AE33" t="n">
         <v>0</v>
       </c>
       <c r="AF33" t="n">
-        <v>0.9067</v>
+        <v>0</v>
       </c>
       <c r="AG33" t="n">
         <v>0</v>
@@ -68927,13 +68927,13 @@
         <v>0</v>
       </c>
       <c r="AK33" t="n">
-        <v>0</v>
+        <v>5.0875</v>
       </c>
       <c r="AL33" t="n">
         <v>0</v>
       </c>
       <c r="AM33" t="n">
-        <v>0</v>
+        <v>6.9125</v>
       </c>
       <c r="AN33" t="n">
         <v>0</v>
@@ -69033,7 +69033,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>7.0875</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -69051,7 +69051,7 @@
         <v>0</v>
       </c>
       <c r="AD34" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AE34" t="n">
         <v>0</v>
@@ -69075,7 +69075,7 @@
         <v>0</v>
       </c>
       <c r="AL34" t="n">
-        <v>0</v>
+        <v>14.9125</v>
       </c>
       <c r="AM34" t="n">
         <v>0</v>
@@ -69175,7 +69175,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -69196,7 +69196,7 @@
         <v>0</v>
       </c>
       <c r="AD35" t="n">
-        <v>0</v>
+        <v>6.0875</v>
       </c>
       <c r="AE35" t="n">
         <v>0</v>
@@ -69217,7 +69217,7 @@
         <v>0</v>
       </c>
       <c r="AK35" t="n">
-        <v>0</v>
+        <v>13.9125</v>
       </c>
       <c r="AL35" t="n">
         <v>0</v>
@@ -71655,7 +71655,7 @@
         <v>0</v>
       </c>
       <c r="AB52" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AC52" t="n">
         <v>0</v>
@@ -71679,7 +71679,7 @@
         <v>0</v>
       </c>
       <c r="AJ52" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AK52" t="n">
         <v>0</v>
@@ -71809,7 +71809,7 @@
         <v>0</v>
       </c>
       <c r="AE53" t="n">
-        <v>0.195</v>
+        <v>0</v>
       </c>
       <c r="AF53" t="n">
         <v>0</v>
@@ -71824,7 +71824,7 @@
         <v>0</v>
       </c>
       <c r="AJ53" t="n">
-        <v>0.405</v>
+        <v>0</v>
       </c>
       <c r="AK53" t="n">
         <v>0</v>
@@ -71930,7 +71930,7 @@
         <v>0</v>
       </c>
       <c r="W54" t="n">
-        <v>0.2889</v>
+        <v>0</v>
       </c>
       <c r="X54" t="n">
         <v>0</v>
@@ -71966,7 +71966,7 @@
         <v>0</v>
       </c>
       <c r="AI54" t="n">
-        <v>0.3111</v>
+        <v>0</v>
       </c>
       <c r="AJ54" t="n">
         <v>0</v>
@@ -72111,7 +72111,7 @@
         <v>0</v>
       </c>
       <c r="AI55" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AJ55" t="n">
         <v>0</v>
@@ -75987,10 +75987,10 @@
         <v>0</v>
       </c>
       <c r="V82" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W82" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="X82" t="n">
         <v>0</v>
@@ -76011,7 +76011,7 @@
         <v>0</v>
       </c>
       <c r="AD82" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AE82" t="n">
         <v>0</v>
@@ -76138,28 +76138,28 @@
         <v>0</v>
       </c>
       <c r="X83" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Y83" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="Z83" t="n">
         <v>0</v>
       </c>
       <c r="AA83" t="n">
-        <v>0.275</v>
+        <v>0</v>
       </c>
       <c r="AB83" t="n">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="AC83" t="n">
-        <v>2.72</v>
+        <v>5</v>
       </c>
       <c r="AD83" t="n">
         <v>0</v>
       </c>
       <c r="AE83" t="n">
-        <v>2.505</v>
+        <v>0</v>
       </c>
       <c r="AF83" t="n">
         <v>0</v>
@@ -76168,7 +76168,7 @@
         <v>0</v>
       </c>
       <c r="AH83" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="AI83" t="n">
         <v>0</v>
@@ -76283,7 +76283,7 @@
         <v>0</v>
       </c>
       <c r="X84" t="n">
-        <v>12.0389</v>
+        <v>0</v>
       </c>
       <c r="Y84" t="n">
         <v>0</v>
@@ -76301,7 +76301,7 @@
         <v>0</v>
       </c>
       <c r="AD84" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AE84" t="n">
         <v>0</v>
@@ -76316,7 +76316,7 @@
         <v>0</v>
       </c>
       <c r="AI84" t="n">
-        <v>0.9111</v>
+        <v>0</v>
       </c>
       <c r="AJ84" t="n">
         <v>0</v>
@@ -76325,7 +76325,7 @@
         <v>0</v>
       </c>
       <c r="AL84" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AM84" t="n">
         <v>0</v>
@@ -76428,46 +76428,46 @@
         <v>0</v>
       </c>
       <c r="X85" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y85" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK85" t="n">
         <v>6</v>
-      </c>
-      <c r="Y85" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z85" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA85" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB85" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC85" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD85" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE85" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF85" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG85" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH85" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI85" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ85" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK85" t="n">
-        <v>0</v>
       </c>
       <c r="AL85" t="n">
         <v>0</v>
@@ -76570,7 +76570,7 @@
         <v>0</v>
       </c>
       <c r="W86" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="X86" t="n">
         <v>0</v>
@@ -76591,7 +76591,7 @@
         <v>0</v>
       </c>
       <c r="AD86" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AE86" t="n">
         <v>0</v>
@@ -76612,7 +76612,7 @@
         <v>0</v>
       </c>
       <c r="AK86" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AL86" t="n">
         <v>0</v>
@@ -76727,7 +76727,7 @@
         <v>0</v>
       </c>
       <c r="AA87" t="n">
-        <v>2.45</v>
+        <v>0</v>
       </c>
       <c r="AB87" t="n">
         <v>0</v>
@@ -76736,7 +76736,7 @@
         <v>0</v>
       </c>
       <c r="AD87" t="n">
-        <v>9.550000000000001</v>
+        <v>0</v>
       </c>
       <c r="AE87" t="n">
         <v>0</v>
@@ -76757,13 +76757,13 @@
         <v>0</v>
       </c>
       <c r="AK87" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AL87" t="n">
         <v>0</v>
       </c>
       <c r="AM87" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AN87" t="n">
         <v>0</v>
@@ -76860,10 +76860,10 @@
         <v>0</v>
       </c>
       <c r="W88" t="n">
-        <v>0</v>
+        <v>10.0875</v>
       </c>
       <c r="X88" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Y88" t="n">
         <v>0</v>
@@ -76881,7 +76881,7 @@
         <v>0</v>
       </c>
       <c r="AD88" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AE88" t="n">
         <v>0</v>
@@ -76905,7 +76905,7 @@
         <v>0</v>
       </c>
       <c r="AL88" t="n">
-        <v>0</v>
+        <v>6.9125</v>
       </c>
       <c r="AM88" t="n">
         <v>0</v>
@@ -77002,13 +77002,13 @@
         <v>0</v>
       </c>
       <c r="V89" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W89" t="n">
-        <v>17.6322</v>
+        <v>0</v>
       </c>
       <c r="X89" t="n">
-        <v>1.4611</v>
+        <v>0</v>
       </c>
       <c r="Y89" t="n">
         <v>0</v>
@@ -77029,10 +77029,10 @@
         <v>0</v>
       </c>
       <c r="AE89" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AF89" t="n">
-        <v>0.9067</v>
+        <v>0</v>
       </c>
       <c r="AG89" t="n">
         <v>0</v>
@@ -77047,7 +77047,7 @@
         <v>0</v>
       </c>
       <c r="AK89" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AL89" t="n">
         <v>0</v>
@@ -79473,7 +79473,7 @@
         <v>0</v>
       </c>
       <c r="X106" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="Y106" t="n">
         <v>0</v>
@@ -79618,7 +79618,7 @@
         <v>0</v>
       </c>
       <c r="X107" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="Y107" t="n">
         <v>0</v>
@@ -79781,7 +79781,7 @@
         <v>0</v>
       </c>
       <c r="AD108" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AE108" t="n">
         <v>0</v>
@@ -79799,7 +79799,7 @@
         <v>0</v>
       </c>
       <c r="AJ108" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AK108" t="n">
         <v>0</v>
@@ -79929,7 +79929,7 @@
         <v>0</v>
       </c>
       <c r="AE109" t="n">
-        <v>0.195</v>
+        <v>0</v>
       </c>
       <c r="AF109" t="n">
         <v>0</v>
@@ -79944,7 +79944,7 @@
         <v>0</v>
       </c>
       <c r="AJ109" t="n">
-        <v>0.405</v>
+        <v>0</v>
       </c>
       <c r="AK109" t="n">
         <v>0</v>
@@ -80251,16 +80251,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>26.25</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>53.75</v>
       </c>
       <c r="I2" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -80402,10 +80402,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I3" t="n">
-        <v>43.1947</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -80420,7 +80420,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -80432,7 +80432,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>11.8053</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -80550,7 +80550,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>11.9364</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -80565,10 +80565,10 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>6.7</v>
       </c>
       <c r="O4" t="n">
-        <v>35</v>
+        <v>16.3636</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -80686,7 +80686,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>6.1864</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -80695,7 +80695,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>72</v>
+        <v>65.81359999999999</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -80837,7 +80837,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -80849,10 +80849,10 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>20.75</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>47.25</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -80985,7 +80985,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -80994,7 +80994,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>39.9053</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -81012,7 +81012,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>15.0947</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -81133,10 +81133,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="K8" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -81263,7 +81263,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -81275,10 +81275,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -81408,7 +81408,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -81420,7 +81420,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -81441,7 +81441,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -81547,19 +81547,19 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E11" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -81698,7 +81698,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>35</v>
+        <v>33.9474</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -81846,7 +81846,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>8.446300000000001</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -81855,16 +81855,16 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>2.1053</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>17.8947</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>6.5537</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -81882,7 +81882,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -81985,7 +81985,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -82003,7 +82003,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>4.8333</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -82012,10 +82012,10 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N14" t="n">
-        <v>41.1667</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -82145,10 +82145,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>19.8947</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -82169,7 +82169,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -82290,10 +82290,10 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
         <v>28</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -82417,7 +82417,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>6.5537</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -82441,10 +82441,10 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>18.4463</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -82562,13 +82562,13 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -82728,10 +82728,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="K19" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -82867,19 +82867,19 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>25.7079</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>18.2921</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -83015,13 +83015,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
         <v>50</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -83160,7 +83160,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -83172,7 +83172,7 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>14.75</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -83305,7 +83305,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -83335,13 +83335,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>7.7158</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -83441,7 +83441,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -83477,7 +83477,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -83586,7 +83586,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -83613,7 +83613,7 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>17.9</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -83622,7 +83622,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -83731,7 +83731,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -83740,7 +83740,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>23.2</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -83758,7 +83758,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -83882,7 +83882,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -83912,13 +83912,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>9.4316</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -84078,7 +84078,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="Z28" t="n">
         <v>0</v>
@@ -84090,10 +84090,10 @@
         <v>0</v>
       </c>
       <c r="AC28" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AD28" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AE28" t="n">
         <v>0</v>
@@ -84105,7 +84105,7 @@
         <v>0</v>
       </c>
       <c r="AH28" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AI28" t="n">
         <v>0</v>
@@ -84114,7 +84114,7 @@
         <v>0</v>
       </c>
       <c r="AK28" t="n">
-        <v>0</v>
+        <v>9.0875</v>
       </c>
       <c r="AL28" t="n">
         <v>0</v>
@@ -84217,7 +84217,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -84259,10 +84259,10 @@
         <v>0</v>
       </c>
       <c r="AK29" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AL29" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AM29" t="n">
         <v>0</v>
@@ -84362,7 +84362,7 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>11.28</v>
+        <v>9</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -84380,13 +84380,13 @@
         <v>0</v>
       </c>
       <c r="AC30" t="n">
-        <v>2.72</v>
+        <v>0</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
       </c>
       <c r="AE30" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AF30" t="n">
         <v>0</v>
@@ -84507,7 +84507,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>1.6839</v>
+        <v>6</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -84522,7 +84522,7 @@
         <v>0</v>
       </c>
       <c r="AB31" t="n">
-        <v>2.3161</v>
+        <v>0</v>
       </c>
       <c r="AC31" t="n">
         <v>0</v>
@@ -84531,7 +84531,7 @@
         <v>0</v>
       </c>
       <c r="AE31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF31" t="n">
         <v>0</v>
@@ -84655,7 +84655,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>9.5161</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -84667,7 +84667,7 @@
         <v>0</v>
       </c>
       <c r="AB32" t="n">
-        <v>0.3839</v>
+        <v>0</v>
       </c>
       <c r="AC32" t="n">
         <v>0</v>
@@ -84676,7 +84676,7 @@
         <v>0</v>
       </c>
       <c r="AE32" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AF32" t="n">
         <v>0</v>
@@ -84697,7 +84697,7 @@
         <v>0</v>
       </c>
       <c r="AL32" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AM32" t="n">
         <v>0</v>
@@ -84800,7 +84800,7 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>10.6839</v>
+        <v>7</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -84818,7 +84818,7 @@
         <v>0</v>
       </c>
       <c r="AD33" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AE33" t="n">
         <v>0</v>
@@ -84830,13 +84830,13 @@
         <v>0</v>
       </c>
       <c r="AH33" t="n">
-        <v>0.4111</v>
+        <v>0</v>
       </c>
       <c r="AI33" t="n">
         <v>0</v>
       </c>
       <c r="AJ33" t="n">
-        <v>0.905</v>
+        <v>0</v>
       </c>
       <c r="AK33" t="n">
         <v>0</v>
@@ -84942,7 +84942,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>18.3683</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -84954,7 +84954,7 @@
         <v>0</v>
       </c>
       <c r="AA34" t="n">
-        <v>2.725</v>
+        <v>0</v>
       </c>
       <c r="AB34" t="n">
         <v>0</v>
@@ -84963,13 +84963,13 @@
         <v>0</v>
       </c>
       <c r="AD34" t="n">
-        <v>0</v>
+        <v>6.0875</v>
       </c>
       <c r="AE34" t="n">
         <v>0</v>
       </c>
       <c r="AF34" t="n">
-        <v>0.9067</v>
+        <v>0</v>
       </c>
       <c r="AG34" t="n">
         <v>0</v>
@@ -84984,7 +84984,7 @@
         <v>0</v>
       </c>
       <c r="AK34" t="n">
-        <v>0</v>
+        <v>15.9125</v>
       </c>
       <c r="AL34" t="n">
         <v>0</v>
@@ -85108,7 +85108,7 @@
         <v>0</v>
       </c>
       <c r="AD35" t="n">
-        <v>18.7</v>
+        <v>0</v>
       </c>
       <c r="AE35" t="n">
         <v>0</v>
@@ -85120,10 +85120,10 @@
         <v>0</v>
       </c>
       <c r="AH35" t="n">
-        <v>0.3889</v>
+        <v>0</v>
       </c>
       <c r="AI35" t="n">
-        <v>0.9111</v>
+        <v>0</v>
       </c>
       <c r="AJ35" t="n">
         <v>0</v>
@@ -85132,10 +85132,10 @@
         <v>0</v>
       </c>
       <c r="AL35" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AM35" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AN35" t="n">
         <v>0</v>
@@ -87552,7 +87552,7 @@
         <v>0</v>
       </c>
       <c r="W52" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="X52" t="n">
         <v>0</v>
@@ -87697,7 +87697,7 @@
         <v>0</v>
       </c>
       <c r="W53" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="X53" t="n">
         <v>0</v>
@@ -87866,7 +87866,7 @@
         <v>0</v>
       </c>
       <c r="AE54" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AF54" t="n">
         <v>0</v>
@@ -87987,10 +87987,10 @@
         <v>0</v>
       </c>
       <c r="W55" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="X55" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Y55" t="n">
         <v>0</v>
@@ -91914,7 +91914,7 @@
         <v>0</v>
       </c>
       <c r="AA82" t="n">
-        <v>1.825</v>
+        <v>0</v>
       </c>
       <c r="AB82" t="n">
         <v>0</v>
@@ -91923,7 +91923,7 @@
         <v>0</v>
       </c>
       <c r="AD82" t="n">
-        <v>12.975</v>
+        <v>0</v>
       </c>
       <c r="AE82" t="n">
         <v>0</v>
@@ -91935,7 +91935,7 @@
         <v>0</v>
       </c>
       <c r="AH82" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AI82" t="n">
         <v>0</v>
@@ -91944,7 +91944,7 @@
         <v>0</v>
       </c>
       <c r="AK82" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AL82" t="n">
         <v>0</v>
@@ -92047,7 +92047,7 @@
         <v>0</v>
       </c>
       <c r="W83" t="n">
-        <v>9.095000000000001</v>
+        <v>0</v>
       </c>
       <c r="X83" t="n">
         <v>0</v>
@@ -92086,13 +92086,13 @@
         <v>0</v>
       </c>
       <c r="AJ83" t="n">
-        <v>0.905</v>
+        <v>0</v>
       </c>
       <c r="AK83" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AL83" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AM83" t="n">
         <v>0</v>
@@ -92192,7 +92192,7 @@
         <v>0</v>
       </c>
       <c r="W84" t="n">
-        <v>13.0933</v>
+        <v>9</v>
       </c>
       <c r="X84" t="n">
         <v>0</v>
@@ -92219,7 +92219,7 @@
         <v>0</v>
       </c>
       <c r="AF84" t="n">
-        <v>0.9067</v>
+        <v>0</v>
       </c>
       <c r="AG84" t="n">
         <v>0</v>
@@ -92240,7 +92240,7 @@
         <v>0</v>
       </c>
       <c r="AM84" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AN84" t="n">
         <v>0</v>
@@ -92337,7 +92337,7 @@
         <v>0</v>
       </c>
       <c r="W85" t="n">
-        <v>3.2639</v>
+        <v>0</v>
       </c>
       <c r="X85" t="n">
         <v>0</v>
@@ -92361,7 +92361,7 @@
         <v>0</v>
       </c>
       <c r="AE85" t="n">
-        <v>1.925</v>
+        <v>0</v>
       </c>
       <c r="AF85" t="n">
         <v>0</v>
@@ -92373,7 +92373,7 @@
         <v>0</v>
       </c>
       <c r="AI85" t="n">
-        <v>0.8111</v>
+        <v>0</v>
       </c>
       <c r="AJ85" t="n">
         <v>0</v>
@@ -92385,7 +92385,7 @@
         <v>0</v>
       </c>
       <c r="AM85" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AN85" t="n">
         <v>0</v>
@@ -92485,16 +92485,16 @@
         <v>0</v>
       </c>
       <c r="X86" t="n">
-        <v>8.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="Y86" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="Z86" t="n">
         <v>0</v>
       </c>
       <c r="AA86" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="AB86" t="n">
         <v>0</v>
@@ -92506,7 +92506,7 @@
         <v>0</v>
       </c>
       <c r="AE86" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AF86" t="n">
         <v>0</v>
@@ -92527,7 +92527,7 @@
         <v>0</v>
       </c>
       <c r="AL86" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AM86" t="n">
         <v>0</v>
@@ -92630,7 +92630,7 @@
         <v>0</v>
       </c>
       <c r="X87" t="n">
-        <v>11.9</v>
+        <v>7</v>
       </c>
       <c r="Y87" t="n">
         <v>0</v>
@@ -92648,7 +92648,7 @@
         <v>0</v>
       </c>
       <c r="AD87" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AE87" t="n">
         <v>0</v>
@@ -92660,7 +92660,7 @@
         <v>0</v>
       </c>
       <c r="AH87" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AI87" t="n">
         <v>0</v>
@@ -92769,10 +92769,10 @@
         <v>0</v>
       </c>
       <c r="V88" t="n">
-        <v>0</v>
+        <v>5.9125</v>
       </c>
       <c r="W88" t="n">
-        <v>16.58</v>
+        <v>0</v>
       </c>
       <c r="X88" t="n">
         <v>0</v>
@@ -92787,13 +92787,13 @@
         <v>0</v>
       </c>
       <c r="AB88" t="n">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="AC88" t="n">
-        <v>2.72</v>
+        <v>0</v>
       </c>
       <c r="AD88" t="n">
-        <v>0</v>
+        <v>6.0875</v>
       </c>
       <c r="AE88" t="n">
         <v>0</v>
@@ -92814,7 +92814,7 @@
         <v>0</v>
       </c>
       <c r="AK88" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AL88" t="n">
         <v>0</v>
@@ -92917,7 +92917,7 @@
         <v>0</v>
       </c>
       <c r="W89" t="n">
-        <v>0</v>
+        <v>6.0875</v>
       </c>
       <c r="X89" t="n">
         <v>0</v>
@@ -92938,10 +92938,10 @@
         <v>0</v>
       </c>
       <c r="AD89" t="n">
-        <v>19.725</v>
+        <v>0</v>
       </c>
       <c r="AE89" t="n">
-        <v>0.175</v>
+        <v>0</v>
       </c>
       <c r="AF89" t="n">
         <v>0</v>
@@ -92953,7 +92953,7 @@
         <v>0</v>
       </c>
       <c r="AI89" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AJ89" t="n">
         <v>0</v>
@@ -92962,7 +92962,7 @@
         <v>0</v>
       </c>
       <c r="AL89" t="n">
-        <v>0</v>
+        <v>13.9125</v>
       </c>
       <c r="AM89" t="n">
         <v>0</v>
@@ -95388,7 +95388,7 @@
         <v>0</v>
       </c>
       <c r="Y106" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="Z106" t="n">
         <v>0</v>
@@ -95560,7 +95560,7 @@
         <v>0</v>
       </c>
       <c r="AH107" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AI107" t="n">
         <v>0</v>
@@ -95696,7 +95696,7 @@
         <v>0</v>
       </c>
       <c r="AE108" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AF108" t="n">
         <v>0</v>
@@ -95817,7 +95817,7 @@
         <v>0</v>
       </c>
       <c r="W109" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="X109" t="n">
         <v>0</v>
@@ -96160,7 +96160,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -96172,7 +96172,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>68.3</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -96187,7 +96187,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>11.7</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -96308,7 +96308,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>42.1864</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -96317,13 +96317,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>12.8136</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -96453,16 +96453,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>9.0136</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>25.9864</v>
       </c>
       <c r="I4" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -96604,19 +96604,19 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.0526</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>43.9474</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -96752,13 +96752,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>66.1053</v>
+        <v>51.6364</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>1.8947</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -96770,7 +96770,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>16.3636</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -96894,10 +96894,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>17.7386</v>
+        <v>55</v>
       </c>
       <c r="I7" t="n">
-        <v>8.561400000000001</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -96915,7 +96915,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>28.7</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -97027,10 +97027,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -97042,7 +97042,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -97051,7 +97051,7 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -97169,7 +97169,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>6.2488</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -97184,7 +97184,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>18.7512</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -97199,7 +97199,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -97320,7 +97320,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -97335,7 +97335,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -97347,7 +97347,7 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -97474,10 +97474,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="I11" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -97628,10 +97628,10 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L12" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -97643,7 +97643,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -97782,13 +97782,13 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
         <v>20</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -97912,10 +97912,10 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
         <v>46</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -98184,7 +98184,7 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -98220,7 +98220,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -98347,10 +98347,10 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
         <v>25</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -98480,7 +98480,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>9.9474</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -98495,13 +98495,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>56.0526</v>
       </c>
       <c r="K18" t="n">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -98619,7 +98619,7 @@
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -98637,7 +98637,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>44.8333</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -98664,7 +98664,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>10.1667</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -98764,7 +98764,7 @@
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -98782,13 +98782,13 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -98909,7 +98909,7 @@
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>9.75</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -98921,7 +98921,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -98942,7 +98942,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>18.1667</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -98951,10 +98951,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>15.25</v>
       </c>
       <c r="R21" t="n">
-        <v>31.8333</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -99063,7 +99063,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -99078,7 +99078,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -99205,10 +99205,10 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
         <v>13</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -99362,7 +99362,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -99374,7 +99374,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -99386,7 +99386,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -99507,7 +99507,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -99534,13 +99534,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>7.3684</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>9.4316</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -99649,7 +99649,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>4.75</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -99664,7 +99664,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>22.25</v>
+        <v>9.2842</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -99682,13 +99682,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>12.7158</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -99788,7 +99788,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -99797,7 +99797,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -99984,52 +99984,52 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL28" t="n">
         <v>15</v>
-      </c>
-      <c r="X28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>0</v>
       </c>
       <c r="AM28" t="n">
         <v>0</v>
@@ -100129,10 +100129,10 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -100150,7 +100150,7 @@
         <v>0</v>
       </c>
       <c r="AD29" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AE29" t="n">
         <v>0</v>
@@ -100295,7 +100295,7 @@
         <v>0</v>
       </c>
       <c r="AD30" t="n">
-        <v>13.1889</v>
+        <v>6.0875</v>
       </c>
       <c r="AE30" t="n">
         <v>0</v>
@@ -100310,13 +100310,13 @@
         <v>0</v>
       </c>
       <c r="AI30" t="n">
-        <v>0.8111</v>
+        <v>0</v>
       </c>
       <c r="AJ30" t="n">
         <v>0</v>
       </c>
       <c r="AK30" t="n">
-        <v>0</v>
+        <v>7.9125</v>
       </c>
       <c r="AL30" t="n">
         <v>0</v>
@@ -100416,7 +100416,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -100431,7 +100431,7 @@
         <v>0</v>
       </c>
       <c r="AA31" t="n">
-        <v>2.225</v>
+        <v>0</v>
       </c>
       <c r="AB31" t="n">
         <v>0</v>
@@ -100440,7 +100440,7 @@
         <v>0</v>
       </c>
       <c r="AD31" t="n">
-        <v>3.775</v>
+        <v>0</v>
       </c>
       <c r="AE31" t="n">
         <v>0</v>
@@ -100564,7 +100564,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>3.0522</v>
+        <v>5</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -100585,13 +100585,13 @@
         <v>0</v>
       </c>
       <c r="AD32" t="n">
-        <v>5.0361</v>
+        <v>5</v>
       </c>
       <c r="AE32" t="n">
         <v>0</v>
       </c>
       <c r="AF32" t="n">
-        <v>0.9067</v>
+        <v>0</v>
       </c>
       <c r="AG32" t="n">
         <v>0</v>
@@ -100600,10 +100600,10 @@
         <v>0</v>
       </c>
       <c r="AI32" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AJ32" t="n">
-        <v>0.905</v>
+        <v>0</v>
       </c>
       <c r="AK32" t="n">
         <v>0</v>
@@ -100709,7 +100709,7 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>4.88</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -100724,16 +100724,16 @@
         <v>0</v>
       </c>
       <c r="AB33" t="n">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="AC33" t="n">
-        <v>2.72</v>
+        <v>0</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
       </c>
       <c r="AE33" t="n">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="AF33" t="n">
         <v>0</v>
@@ -100754,7 +100754,7 @@
         <v>0</v>
       </c>
       <c r="AL33" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AM33" t="n">
         <v>0</v>
@@ -100854,10 +100854,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>5.0875</v>
       </c>
       <c r="X34" t="n">
-        <v>20.1</v>
+        <v>5</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -100878,7 +100878,7 @@
         <v>0</v>
       </c>
       <c r="AE34" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AF34" t="n">
         <v>0</v>
@@ -100887,7 +100887,7 @@
         <v>0</v>
       </c>
       <c r="AH34" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="AI34" t="n">
         <v>0</v>
@@ -100902,7 +100902,7 @@
         <v>0</v>
       </c>
       <c r="AM34" t="n">
-        <v>0</v>
+        <v>6.9125</v>
       </c>
       <c r="AN34" t="n">
         <v>0</v>
@@ -100999,13 +100999,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>19.7</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="Z35" t="n">
         <v>0</v>
@@ -101041,7 +101041,7 @@
         <v>0</v>
       </c>
       <c r="AK35" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AL35" t="n">
         <v>0</v>
@@ -103485,7 +103485,7 @@
         <v>0</v>
       </c>
       <c r="AD52" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AE52" t="n">
         <v>0</v>
@@ -103612,7 +103612,7 @@
         <v>0</v>
       </c>
       <c r="X53" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="Y53" t="n">
         <v>0</v>
@@ -103760,7 +103760,7 @@
         <v>0</v>
       </c>
       <c r="Y54" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="Z54" t="n">
         <v>0</v>
@@ -103911,7 +103911,7 @@
         <v>0</v>
       </c>
       <c r="AA55" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AB55" t="n">
         <v>0</v>
@@ -103920,7 +103920,7 @@
         <v>0</v>
       </c>
       <c r="AD55" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AE55" t="n">
         <v>0</v>
@@ -107814,7 +107814,7 @@
         <v>0</v>
       </c>
       <c r="W82" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="X82" t="n">
         <v>0</v>
@@ -107835,7 +107835,7 @@
         <v>0</v>
       </c>
       <c r="AD82" t="n">
-        <v>0</v>
+        <v>6.0875</v>
       </c>
       <c r="AE82" t="n">
         <v>0</v>
@@ -107862,7 +107862,7 @@
         <v>0</v>
       </c>
       <c r="AM82" t="n">
-        <v>0</v>
+        <v>8.9125</v>
       </c>
       <c r="AN82" t="n">
         <v>0</v>
@@ -107962,7 +107962,7 @@
         <v>0</v>
       </c>
       <c r="X83" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Y83" t="n">
         <v>0</v>
@@ -107974,13 +107974,13 @@
         <v>0</v>
       </c>
       <c r="AB83" t="n">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="AC83" t="n">
         <v>0</v>
       </c>
       <c r="AD83" t="n">
-        <v>7.3</v>
+        <v>5</v>
       </c>
       <c r="AE83" t="n">
         <v>0</v>
@@ -108101,16 +108101,16 @@
         <v>0</v>
       </c>
       <c r="V84" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="W84" t="n">
         <v>0</v>
       </c>
       <c r="X84" t="n">
-        <v>12.0839</v>
+        <v>5</v>
       </c>
       <c r="Y84" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="Z84" t="n">
         <v>0</v>
@@ -108140,10 +108140,10 @@
         <v>0</v>
       </c>
       <c r="AI84" t="n">
-        <v>0.9111</v>
+        <v>0</v>
       </c>
       <c r="AJ84" t="n">
-        <v>0.905</v>
+        <v>0</v>
       </c>
       <c r="AK84" t="n">
         <v>0</v>
@@ -108267,10 +108267,10 @@
         <v>0</v>
       </c>
       <c r="AC85" t="n">
-        <v>2.72</v>
+        <v>0</v>
       </c>
       <c r="AD85" t="n">
-        <v>3.28</v>
+        <v>0</v>
       </c>
       <c r="AE85" t="n">
         <v>0</v>
@@ -108291,7 +108291,7 @@
         <v>0</v>
       </c>
       <c r="AK85" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AL85" t="n">
         <v>0</v>
@@ -108394,7 +108394,7 @@
         <v>0</v>
       </c>
       <c r="W86" t="n">
-        <v>7.48</v>
+        <v>5</v>
       </c>
       <c r="X86" t="n">
         <v>0</v>
@@ -108415,7 +108415,7 @@
         <v>0</v>
       </c>
       <c r="AD86" t="n">
-        <v>1.62</v>
+        <v>0</v>
       </c>
       <c r="AE86" t="n">
         <v>0</v>
@@ -108427,7 +108427,7 @@
         <v>0</v>
       </c>
       <c r="AH86" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="AI86" t="n">
         <v>0</v>
@@ -108436,7 +108436,7 @@
         <v>0</v>
       </c>
       <c r="AK86" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AL86" t="n">
         <v>0</v>
@@ -108539,19 +108539,19 @@
         <v>0</v>
       </c>
       <c r="W87" t="n">
-        <v>9.074999999999999</v>
+        <v>0</v>
       </c>
       <c r="X87" t="n">
         <v>0</v>
       </c>
       <c r="Y87" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="Z87" t="n">
         <v>0</v>
       </c>
       <c r="AA87" t="n">
-        <v>2.125</v>
+        <v>0</v>
       </c>
       <c r="AB87" t="n">
         <v>0</v>
@@ -108584,7 +108584,7 @@
         <v>0</v>
       </c>
       <c r="AL87" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AM87" t="n">
         <v>0</v>
@@ -108684,7 +108684,7 @@
         <v>0</v>
       </c>
       <c r="W88" t="n">
-        <v>0</v>
+        <v>10.0875</v>
       </c>
       <c r="X88" t="n">
         <v>0</v>
@@ -108705,10 +108705,10 @@
         <v>0</v>
       </c>
       <c r="AD88" t="n">
-        <v>19.3</v>
+        <v>0</v>
       </c>
       <c r="AE88" t="n">
-        <v>2.7</v>
+        <v>5</v>
       </c>
       <c r="AF88" t="n">
         <v>0</v>
@@ -108729,7 +108729,7 @@
         <v>0</v>
       </c>
       <c r="AL88" t="n">
-        <v>0</v>
+        <v>6.9125</v>
       </c>
       <c r="AM88" t="n">
         <v>0</v>
@@ -108829,10 +108829,10 @@
         <v>0</v>
       </c>
       <c r="W89" t="n">
-        <v>10.4772</v>
+        <v>0</v>
       </c>
       <c r="X89" t="n">
-        <v>8.616099999999999</v>
+        <v>0</v>
       </c>
       <c r="Y89" t="n">
         <v>0</v>
@@ -108856,7 +108856,7 @@
         <v>0</v>
       </c>
       <c r="AF89" t="n">
-        <v>0.9067</v>
+        <v>0</v>
       </c>
       <c r="AG89" t="n">
         <v>0</v>
@@ -108871,7 +108871,7 @@
         <v>0</v>
       </c>
       <c r="AK89" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AL89" t="n">
         <v>0</v>
@@ -111315,7 +111315,7 @@
         <v>0</v>
       </c>
       <c r="AD106" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AE106" t="n">
         <v>0</v>
@@ -111460,7 +111460,7 @@
         <v>0</v>
       </c>
       <c r="AD107" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AE107" t="n">
         <v>0</v>
@@ -111584,7 +111584,7 @@
         <v>0</v>
       </c>
       <c r="W108" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="X108" t="n">
         <v>0</v>
@@ -111741,7 +111741,7 @@
         <v>0</v>
       </c>
       <c r="AA109" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AB109" t="n">
         <v>0</v>

--- a/Code/1/results/result1_1_final_summary.xlsx
+++ b/Code/1/results/result1_1_final_summary.xlsx
@@ -688,10 +688,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.845</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>76.155</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -700,10 +700,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>51.25</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>18.75</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -715,10 +715,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>43.6364</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -863,7 +863,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>11.3636</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -987,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -1026,7 +1026,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -1132,10 +1132,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>64.655</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -1422,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>48.3</v>
+        <v>55</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1440,7 +1440,7 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>6.7</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1697,10 +1697,10 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D9" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1718,7 +1718,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>24.9</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1869,7 +1869,7 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -1990,7 +1990,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -2008,7 +2008,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -2135,10 +2135,10 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="E12" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -2464,7 +2464,7 @@
         <v>35</v>
       </c>
       <c r="Q14" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -2582,13 +2582,13 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -2724,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>20.2532</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -2736,7 +2736,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>27.8</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -2863,7 +2863,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>5</v>
+        <v>24.9</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -2887,7 +2887,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -3002,7 +3002,7 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -3044,7 +3044,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -3056,7 +3056,7 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>2.0895</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>54.9</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -3165,10 +3165,10 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J19" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -3307,7 +3307,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -3437,7 +3437,7 @@
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>22.4211</v>
+        <v>50</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -3452,7 +3452,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>27.5789</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -3630,7 +3630,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>12.7158</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -3748,7 +3748,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -3902,19 +3902,19 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>14.9</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -4047,7 +4047,7 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -4068,7 +4068,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>5</v>
+        <v>9.3316</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -4174,7 +4174,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -4189,7 +4189,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>26.3158</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -4207,10 +4207,10 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>7.3684</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>12.7158</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -4325,13 +4325,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -4358,7 +4358,7 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -4512,7 +4512,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>8.9125</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -4533,7 +4533,7 @@
         <v>0</v>
       </c>
       <c r="AD28" t="n">
-        <v>6.0875</v>
+        <v>0</v>
       </c>
       <c r="AE28" t="n">
         <v>0</v>
@@ -4548,13 +4548,13 @@
         <v>0</v>
       </c>
       <c r="AI28" t="n">
-        <v>0</v>
+        <v>0.324</v>
       </c>
       <c r="AJ28" t="n">
         <v>0</v>
       </c>
       <c r="AK28" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AL28" t="n">
         <v>0</v>
@@ -4705,7 +4705,7 @@
         <v>5</v>
       </c>
       <c r="AM29" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AN29" t="n">
         <v>0</v>
@@ -4971,7 +4971,7 @@
         <v>0</v>
       </c>
       <c r="AE31" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AF31" t="n">
         <v>0</v>
@@ -4992,7 +4992,7 @@
         <v>0</v>
       </c>
       <c r="AL31" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AM31" t="n">
         <v>0</v>
@@ -5134,13 +5134,13 @@
         <v>0</v>
       </c>
       <c r="AK32" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AL32" t="n">
         <v>0</v>
       </c>
       <c r="AM32" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AN32" t="n">
         <v>0</v>
@@ -5234,7 +5234,7 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -5279,7 +5279,7 @@
         <v>0</v>
       </c>
       <c r="AK33" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AL33" t="n">
         <v>0</v>
@@ -5382,10 +5382,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -5403,7 +5403,7 @@
         <v>0</v>
       </c>
       <c r="AD34" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AE34" t="n">
         <v>0</v>
@@ -5424,13 +5424,13 @@
         <v>0</v>
       </c>
       <c r="AK34" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AL34" t="n">
         <v>0</v>
       </c>
       <c r="AM34" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AN34" t="n">
         <v>0</v>
@@ -5551,7 +5551,7 @@
         <v>0</v>
       </c>
       <c r="AE35" t="n">
-        <v>0</v>
+        <v>1.0875</v>
       </c>
       <c r="AF35" t="n">
         <v>0</v>
@@ -5569,7 +5569,7 @@
         <v>0</v>
       </c>
       <c r="AK35" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AL35" t="n">
         <v>0</v>
@@ -8013,13 +8013,13 @@
         <v>0</v>
       </c>
       <c r="AD52" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AE52" t="n">
         <v>0</v>
       </c>
       <c r="AF52" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AG52" t="n">
         <v>0</v>
@@ -8167,7 +8167,7 @@
         <v>0</v>
       </c>
       <c r="AG53" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AH53" t="n">
         <v>0</v>
@@ -8282,7 +8282,7 @@
         <v>0</v>
       </c>
       <c r="W54" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="X54" t="n">
         <v>0</v>
@@ -8430,7 +8430,7 @@
         <v>0</v>
       </c>
       <c r="X55" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="Y55" t="n">
         <v>0</v>
@@ -12345,7 +12345,7 @@
         <v>0</v>
       </c>
       <c r="X82" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Y82" t="n">
         <v>0</v>
@@ -12363,7 +12363,7 @@
         <v>0</v>
       </c>
       <c r="AD82" t="n">
-        <v>5</v>
+        <v>11.0875</v>
       </c>
       <c r="AE82" t="n">
         <v>0</v>
@@ -12390,7 +12390,7 @@
         <v>0</v>
       </c>
       <c r="AM82" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AN82" t="n">
         <v>0</v>
@@ -12487,7 +12487,7 @@
         <v>0</v>
       </c>
       <c r="W83" t="n">
-        <v>9.0875</v>
+        <v>0</v>
       </c>
       <c r="X83" t="n">
         <v>0</v>
@@ -12620,7 +12620,7 @@
         <v>0</v>
       </c>
       <c r="S84" t="n">
-        <v>0</v>
+        <v>7.1649</v>
       </c>
       <c r="T84" t="n">
         <v>0</v>
@@ -12629,13 +12629,13 @@
         <v>0</v>
       </c>
       <c r="V84" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="W84" t="n">
         <v>0</v>
       </c>
       <c r="X84" t="n">
-        <v>5</v>
+        <v>5.7375</v>
       </c>
       <c r="Y84" t="n">
         <v>0</v>
@@ -12650,7 +12650,7 @@
         <v>0</v>
       </c>
       <c r="AC84" t="n">
-        <v>0</v>
+        <v>1.0976</v>
       </c>
       <c r="AD84" t="n">
         <v>0</v>
@@ -12777,7 +12777,7 @@
         <v>0</v>
       </c>
       <c r="W85" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="X85" t="n">
         <v>0</v>
@@ -13209,7 +13209,7 @@
         <v>0</v>
       </c>
       <c r="V88" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="W88" t="n">
         <v>0</v>
@@ -13233,7 +13233,7 @@
         <v>0</v>
       </c>
       <c r="AD88" t="n">
-        <v>6.0875</v>
+        <v>0</v>
       </c>
       <c r="AE88" t="n">
         <v>0</v>
@@ -13257,7 +13257,7 @@
         <v>0</v>
       </c>
       <c r="AL88" t="n">
-        <v>10.9125</v>
+        <v>22</v>
       </c>
       <c r="AM88" t="n">
         <v>0</v>
@@ -13381,7 +13381,7 @@
         <v>0</v>
       </c>
       <c r="AE89" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AF89" t="n">
         <v>0</v>
@@ -13399,13 +13399,13 @@
         <v>0</v>
       </c>
       <c r="AK89" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AL89" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AM89" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AN89" t="n">
         <v>0</v>
@@ -15825,7 +15825,7 @@
         <v>0</v>
       </c>
       <c r="X106" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="Y106" t="n">
         <v>0</v>
@@ -15967,7 +15967,7 @@
         <v>0</v>
       </c>
       <c r="W107" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="X107" t="n">
         <v>0</v>
@@ -16115,7 +16115,7 @@
         <v>0</v>
       </c>
       <c r="X108" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="Y108" t="n">
         <v>0</v>
@@ -16257,7 +16257,7 @@
         <v>0</v>
       </c>
       <c r="W109" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="X109" t="n">
         <v>0</v>
@@ -16269,7 +16269,7 @@
         <v>0</v>
       </c>
       <c r="AA109" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AB109" t="n">
         <v>0</v>
@@ -16609,10 +16609,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>77.75</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -16748,16 +16748,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>12.25</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>42.75</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -16899,10 +16899,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="I4" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -17035,10 +17035,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>32.6</v>
       </c>
       <c r="F5" t="n">
-        <v>55.3</v>
+        <v>39.4</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -17047,7 +17047,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -17062,7 +17062,7 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>11.7</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -17189,7 +17189,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>51.6364</v>
+        <v>68</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -17210,7 +17210,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>16.3636</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -17319,7 +17319,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -17337,7 +17337,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -17485,7 +17485,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -17503,10 +17503,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -17630,7 +17630,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -17651,10 +17651,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>17.6316</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>7.3684</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -17754,10 +17754,10 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>35.6699</v>
+        <v>0.1</v>
       </c>
       <c r="D10" t="n">
-        <v>24.3301</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -17769,7 +17769,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>47.7456</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -17802,7 +17802,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>12.1544</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -17899,22 +17899,22 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
         <v>45</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -18195,7 +18195,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -18213,7 +18213,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -18355,10 +18355,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>36.9</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>9.1</v>
+        <v>46</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -18494,13 +18494,13 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
         <v>40</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -18630,13 +18630,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -18769,7 +18769,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -18784,7 +18784,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -18914,7 +18914,7 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -18935,7 +18935,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -19062,7 +19062,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>21.6699</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -19071,16 +19071,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>8.3301</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>52.8947</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -19098,7 +19098,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>2.1053</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -19204,10 +19204,10 @@
         <v>1</v>
       </c>
       <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
         <v>44</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -19355,7 +19355,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>30.9474</v>
+        <v>4.6316</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -19376,7 +19376,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>15.5</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -19497,7 +19497,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>2.1111</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -19521,10 +19521,10 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -19545,7 +19545,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>5</v>
+        <v>9.4316</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -19648,7 +19648,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -19681,7 +19681,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -19811,7 +19811,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -19835,10 +19835,10 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -19956,7 +19956,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -19977,7 +19977,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>12.7158</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -20083,7 +20083,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -20098,13 +20098,13 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -20249,7 +20249,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>12.6316</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -20261,10 +20261,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>2.3931</v>
       </c>
       <c r="R27" t="n">
-        <v>7.3684</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -20572,7 +20572,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>5</v>
+        <v>0.1</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -20590,7 +20590,7 @@
         <v>0</v>
       </c>
       <c r="AD29" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AE29" t="n">
         <v>0</v>
@@ -20611,7 +20611,7 @@
         <v>0</v>
       </c>
       <c r="AK29" t="n">
-        <v>0</v>
+        <v>9.672000000000001</v>
       </c>
       <c r="AL29" t="n">
         <v>0</v>
@@ -20714,7 +20714,7 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -20756,7 +20756,7 @@
         <v>0</v>
       </c>
       <c r="AK30" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AL30" t="n">
         <v>0</v>
@@ -20880,7 +20880,7 @@
         <v>0</v>
       </c>
       <c r="AD31" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AE31" t="n">
         <v>0</v>
@@ -20901,7 +20901,7 @@
         <v>0</v>
       </c>
       <c r="AK31" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AL31" t="n">
         <v>0</v>
@@ -21007,7 +21007,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>6.9875</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -21028,7 +21028,7 @@
         <v>0</v>
       </c>
       <c r="AE32" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AF32" t="n">
         <v>0</v>
@@ -21149,7 +21149,7 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -21194,7 +21194,7 @@
         <v>0</v>
       </c>
       <c r="AL33" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AM33" t="n">
         <v>0</v>
@@ -21306,7 +21306,7 @@
         <v>0</v>
       </c>
       <c r="AA34" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AB34" t="n">
         <v>0</v>
@@ -21318,7 +21318,7 @@
         <v>0</v>
       </c>
       <c r="AE34" t="n">
-        <v>0</v>
+        <v>1.0875</v>
       </c>
       <c r="AF34" t="n">
         <v>0</v>
@@ -21336,13 +21336,13 @@
         <v>0</v>
       </c>
       <c r="AK34" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AL34" t="n">
         <v>0</v>
       </c>
       <c r="AM34" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AN34" t="n">
         <v>0</v>
@@ -21439,7 +21439,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>10.0875</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -21481,13 +21481,13 @@
         <v>0</v>
       </c>
       <c r="AK35" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AL35" t="n">
         <v>0</v>
       </c>
       <c r="AM35" t="n">
-        <v>9.9125</v>
+        <v>0</v>
       </c>
       <c r="AN35" t="n">
         <v>0</v>
@@ -23943,10 +23943,10 @@
         <v>0</v>
       </c>
       <c r="AJ52" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AK52" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AL52" t="n">
         <v>0</v>
@@ -24091,7 +24091,7 @@
         <v>0</v>
       </c>
       <c r="AK53" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AL53" t="n">
         <v>0</v>
@@ -24182,7 +24182,7 @@
         <v>0</v>
       </c>
       <c r="S54" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="T54" t="n">
         <v>0</v>
@@ -24236,7 +24236,7 @@
         <v>0</v>
       </c>
       <c r="AK54" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AL54" t="n">
         <v>0</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="AK55" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AL55" t="n">
         <v>0</v>
@@ -28245,16 +28245,16 @@
         <v>0</v>
       </c>
       <c r="T82" t="n">
-        <v>0</v>
+        <v>0.5875</v>
       </c>
       <c r="U82" t="n">
         <v>0</v>
       </c>
       <c r="V82" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="W82" t="n">
-        <v>0</v>
+        <v>14.4125</v>
       </c>
       <c r="X82" t="n">
         <v>0</v>
@@ -28299,7 +28299,7 @@
         <v>0</v>
       </c>
       <c r="AL82" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AM82" t="n">
         <v>0</v>
@@ -28441,7 +28441,7 @@
         <v>0</v>
       </c>
       <c r="AK83" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AL83" t="n">
         <v>0</v>
@@ -28544,7 +28544,7 @@
         <v>0</v>
       </c>
       <c r="W84" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="X84" t="n">
         <v>0</v>
@@ -28568,7 +28568,7 @@
         <v>0</v>
       </c>
       <c r="AE84" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AF84" t="n">
         <v>0</v>
@@ -28577,7 +28577,7 @@
         <v>0</v>
       </c>
       <c r="AH84" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AI84" t="n">
         <v>0</v>
@@ -28707,10 +28707,10 @@
         <v>0</v>
       </c>
       <c r="AC85" t="n">
-        <v>0</v>
+        <v>1.0976</v>
       </c>
       <c r="AD85" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AE85" t="n">
         <v>0</v>
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="AD86" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AE86" t="n">
         <v>0</v>
@@ -28879,7 +28879,7 @@
         <v>0</v>
       </c>
       <c r="AL86" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AM86" t="n">
         <v>0</v>
@@ -28982,7 +28982,7 @@
         <v>0</v>
       </c>
       <c r="X87" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Y87" t="n">
         <v>0</v>
@@ -29024,7 +29024,7 @@
         <v>0</v>
       </c>
       <c r="AL87" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="AM87" t="n">
         <v>0</v>
@@ -29166,7 +29166,7 @@
         <v>0</v>
       </c>
       <c r="AK88" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AL88" t="n">
         <v>0</v>
@@ -29257,7 +29257,7 @@
         <v>0</v>
       </c>
       <c r="S89" t="n">
-        <v>0</v>
+        <v>12.08</v>
       </c>
       <c r="T89" t="n">
         <v>0</v>
@@ -29269,7 +29269,7 @@
         <v>0</v>
       </c>
       <c r="W89" t="n">
-        <v>6.0875</v>
+        <v>0</v>
       </c>
       <c r="X89" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="AD89" t="n">
-        <v>5.0875</v>
+        <v>0</v>
       </c>
       <c r="AE89" t="n">
         <v>0</v>
@@ -29317,7 +29317,7 @@
         <v>0</v>
       </c>
       <c r="AM89" t="n">
-        <v>8.824999999999999</v>
+        <v>0</v>
       </c>
       <c r="AN89" t="n">
         <v>0</v>
@@ -31734,7 +31734,7 @@
         <v>0</v>
       </c>
       <c r="W106" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="X106" t="n">
         <v>0</v>
@@ -32045,7 +32045,7 @@
         <v>0</v>
       </c>
       <c r="AD108" t="n">
-        <v>0</v>
+        <v>0.3667</v>
       </c>
       <c r="AE108" t="n">
         <v>0</v>
@@ -32190,7 +32190,7 @@
         <v>0</v>
       </c>
       <c r="AD109" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AE109" t="n">
         <v>0</v>
@@ -32515,7 +32515,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>59.4</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -32524,7 +32524,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -32651,10 +32651,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>26.2364</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>5.7</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -32669,7 +32669,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -32684,10 +32684,10 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>11.7</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>11.3636</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -32805,13 +32805,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -32953,10 +32953,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H5" t="n">
-        <v>72</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -33095,7 +33095,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>10.25</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -33104,7 +33104,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>57.75</v>
+        <v>55.2842</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -33134,7 +33134,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>12.7158</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -33240,13 +33240,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>35.65</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>19.35</v>
+        <v>47.6316</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -33276,7 +33276,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>7.3684</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -33391,7 +33391,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -33400,7 +33400,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -33527,7 +33527,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -33536,7 +33536,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -33687,10 +33687,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>49.75</v>
+        <v>60</v>
       </c>
       <c r="K10" t="n">
-        <v>10.25</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -33814,7 +33814,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -33832,7 +33832,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>35.5684</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -33862,10 +33862,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>9.4316</v>
       </c>
       <c r="U11" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -33956,7 +33956,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -33980,7 +33980,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -34107,7 +34107,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>13.2105</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -34116,7 +34116,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>6.7895</v>
+        <v>20</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -34252,13 +34252,13 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -34267,7 +34267,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -34391,7 +34391,7 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -34412,7 +34412,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -34542,7 +34542,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>25.8105</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -34557,13 +34557,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>9.1447</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>13.8553</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -34575,7 +34575,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -34590,7 +34590,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>2.1895</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -34693,7 +34693,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -34702,7 +34702,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -34720,7 +34720,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -34826,7 +34826,7 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -34841,7 +34841,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>73.6842</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>12.3158</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -34971,7 +34971,7 @@
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>36.3828</v>
+        <v>55</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -35019,7 +35019,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>12.7158</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -35128,7 +35128,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>24.8949</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -35137,7 +35137,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -35158,7 +35158,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -35282,7 +35282,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -35412,10 +35412,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -35430,10 +35430,10 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>13.3158</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -35578,10 +35578,10 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="M23" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -35705,40 +35705,40 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
         <v>15</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -35850,7 +35850,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -35871,13 +35871,13 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>17.9</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -36022,22 +36022,22 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>10.2</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>7.3684</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>9.4316</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -36140,7 +36140,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>8.268700000000001</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -36158,7 +36158,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>11.7313</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -36336,7 +36336,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -36357,10 +36357,10 @@
         <v>0</v>
       </c>
       <c r="AD28" t="n">
-        <v>5</v>
+        <v>11.0875</v>
       </c>
       <c r="AE28" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AF28" t="n">
         <v>0</v>
@@ -36478,7 +36478,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -36671,10 +36671,10 @@
         <v>0</v>
       </c>
       <c r="AL30" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AM30" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AN30" t="n">
         <v>0</v>
@@ -36771,7 +36771,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>5.0875</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -36816,7 +36816,7 @@
         <v>0</v>
       </c>
       <c r="AL31" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AM31" t="n">
         <v>0</v>
@@ -37103,13 +37103,13 @@
         <v>0</v>
       </c>
       <c r="AK33" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AL33" t="n">
         <v>0</v>
       </c>
       <c r="AM33" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AN33" t="n">
         <v>0</v>
@@ -37206,10 +37206,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -37227,7 +37227,7 @@
         <v>0</v>
       </c>
       <c r="AD34" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AE34" t="n">
         <v>0</v>
@@ -37251,7 +37251,7 @@
         <v>0</v>
       </c>
       <c r="AL34" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="AM34" t="n">
         <v>0</v>
@@ -37351,7 +37351,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>14.8625</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -37375,7 +37375,7 @@
         <v>0</v>
       </c>
       <c r="AE35" t="n">
-        <v>0</v>
+        <v>1.0875</v>
       </c>
       <c r="AF35" t="n">
         <v>0</v>
@@ -37393,10 +37393,10 @@
         <v>0</v>
       </c>
       <c r="AK35" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AL35" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AM35" t="n">
         <v>0</v>
@@ -39961,7 +39961,7 @@
         <v>0</v>
       </c>
       <c r="W53" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="X53" t="n">
         <v>0</v>
@@ -40109,7 +40109,7 @@
         <v>0</v>
       </c>
       <c r="X54" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="Y54" t="n">
         <v>0</v>
@@ -40251,7 +40251,7 @@
         <v>0</v>
       </c>
       <c r="W55" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="X55" t="n">
         <v>0</v>
@@ -44169,7 +44169,7 @@
         <v>0</v>
       </c>
       <c r="X82" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Y82" t="n">
         <v>0</v>
@@ -44190,7 +44190,7 @@
         <v>0</v>
       </c>
       <c r="AE82" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AF82" t="n">
         <v>0</v>
@@ -44208,7 +44208,7 @@
         <v>0</v>
       </c>
       <c r="AK82" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AL82" t="n">
         <v>0</v>
@@ -44308,10 +44308,10 @@
         <v>0</v>
       </c>
       <c r="V83" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="W83" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="X83" t="n">
         <v>0</v>
@@ -44604,7 +44604,7 @@
         <v>0</v>
       </c>
       <c r="X85" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Y85" t="n">
         <v>0</v>
@@ -44649,7 +44649,7 @@
         <v>0</v>
       </c>
       <c r="AM85" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AN85" t="n">
         <v>0</v>
@@ -44767,7 +44767,7 @@
         <v>0</v>
       </c>
       <c r="AD86" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AE86" t="n">
         <v>0</v>
@@ -44788,10 +44788,10 @@
         <v>0</v>
       </c>
       <c r="AK86" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AL86" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AM86" t="n">
         <v>0</v>
@@ -44912,10 +44912,10 @@
         <v>0</v>
       </c>
       <c r="AD87" t="n">
-        <v>6.0875</v>
+        <v>0</v>
       </c>
       <c r="AE87" t="n">
-        <v>0</v>
+        <v>1.0875</v>
       </c>
       <c r="AF87" t="n">
         <v>0</v>
@@ -44933,13 +44933,13 @@
         <v>0</v>
       </c>
       <c r="AK87" t="n">
-        <v>5.9125</v>
+        <v>0</v>
       </c>
       <c r="AL87" t="n">
         <v>0</v>
       </c>
       <c r="AM87" t="n">
-        <v>0</v>
+        <v>10.9125</v>
       </c>
       <c r="AN87" t="n">
         <v>0</v>
@@ -45036,7 +45036,7 @@
         <v>0</v>
       </c>
       <c r="W88" t="n">
-        <v>10.0875</v>
+        <v>0</v>
       </c>
       <c r="X88" t="n">
         <v>0</v>
@@ -45078,10 +45078,10 @@
         <v>0</v>
       </c>
       <c r="AK88" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AL88" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AM88" t="n">
         <v>0</v>
@@ -45184,7 +45184,7 @@
         <v>0</v>
       </c>
       <c r="X89" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Y89" t="n">
         <v>0</v>
@@ -45202,7 +45202,7 @@
         <v>0</v>
       </c>
       <c r="AD89" t="n">
-        <v>0</v>
+        <v>11.0875</v>
       </c>
       <c r="AE89" t="n">
         <v>0</v>
@@ -45223,7 +45223,7 @@
         <v>0</v>
       </c>
       <c r="AK89" t="n">
-        <v>14.0875</v>
+        <v>0</v>
       </c>
       <c r="AL89" t="n">
         <v>0</v>
@@ -47649,7 +47649,7 @@
         <v>0</v>
       </c>
       <c r="X106" t="n">
-        <v>0</v>
+        <v>0.2667</v>
       </c>
       <c r="Y106" t="n">
         <v>0</v>
@@ -47794,7 +47794,7 @@
         <v>0</v>
       </c>
       <c r="X107" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="Y107" t="n">
         <v>0</v>
@@ -47936,7 +47936,7 @@
         <v>0</v>
       </c>
       <c r="W108" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="X108" t="n">
         <v>0</v>
@@ -47963,7 +47963,7 @@
         <v>0</v>
       </c>
       <c r="AF108" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AG108" t="n">
         <v>0</v>
@@ -48084,7 +48084,7 @@
         <v>0</v>
       </c>
       <c r="X109" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="Y109" t="n">
         <v>0</v>
@@ -48427,13 +48427,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>58.4</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>16.6</v>
+        <v>80</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -48451,7 +48451,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -48569,7 +48569,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>13.15</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -48578,7 +48578,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>41.85</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -48871,7 +48871,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>55.6364</v>
+        <v>72</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -48889,7 +48889,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>16.3636</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -49143,7 +49143,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>6.1864</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -49152,7 +49152,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -49161,7 +49161,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>42.1136</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -49176,7 +49176,7 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>6.7</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -49309,7 +49309,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -49330,7 +49330,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -49433,7 +49433,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>14.2405</v>
+        <v>25</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -49445,7 +49445,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>10.7595</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -49578,7 +49578,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -49593,7 +49593,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -49723,7 +49723,7 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -49738,7 +49738,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -49871,10 +49871,10 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="E12" t="n">
-        <v>25.1053</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -49910,7 +49910,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>9.8947</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -50013,10 +50013,10 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>15.2381</v>
       </c>
       <c r="D13" t="n">
-        <v>14.8947</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -50049,13 +50049,13 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>4.7619</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>5.1053</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -50170,10 +50170,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="H14" t="n">
-        <v>21.6842</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -50182,7 +50182,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>24.3158</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -50303,7 +50303,7 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>14.3158</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -50318,7 +50318,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -50327,7 +50327,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>25.6842</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -50451,7 +50451,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -50463,13 +50463,13 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -50599,16 +50599,16 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -50759,10 +50759,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -50783,7 +50783,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>7.3684</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -50886,7 +50886,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>8.1053</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -50904,7 +50904,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>46.8947</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -50934,7 +50934,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -51049,16 +51049,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>14.2857</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -51173,7 +51173,7 @@
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -51194,7 +51194,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -51212,7 +51212,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -51348,7 +51348,7 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>5</v>
+        <v>14.9</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -51369,7 +51369,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>9.4316</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -51472,34 +51472,34 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
         <v>13</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -51620,7 +51620,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -51656,7 +51656,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>12.7158</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -51798,16 +51798,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>7.3684</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>9.2316</v>
       </c>
       <c r="U25" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -51907,7 +51907,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -51940,7 +51940,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>21.0526</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -51949,7 +51949,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -52070,10 +52070,10 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>19.9</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -52091,7 +52091,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>12.7158</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -52293,7 +52293,7 @@
         <v>0</v>
       </c>
       <c r="AL28" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AM28" t="n">
         <v>0</v>
@@ -52414,7 +52414,7 @@
         <v>0</v>
       </c>
       <c r="AD29" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AE29" t="n">
         <v>0</v>
@@ -52438,7 +52438,7 @@
         <v>0</v>
       </c>
       <c r="AL29" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AM29" t="n">
         <v>0</v>
@@ -52580,7 +52580,7 @@
         <v>0</v>
       </c>
       <c r="AK30" t="n">
-        <v>14</v>
+        <v>9.772</v>
       </c>
       <c r="AL30" t="n">
         <v>0</v>
@@ -52680,7 +52680,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -52704,7 +52704,7 @@
         <v>0</v>
       </c>
       <c r="AD31" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AE31" t="n">
         <v>0</v>
@@ -52822,13 +52822,13 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="V32" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>5</v>
+        <v>7.92</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -52976,7 +52976,7 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -53012,13 +53012,13 @@
         <v>0</v>
       </c>
       <c r="AJ33" t="n">
-        <v>0</v>
+        <v>0.3273</v>
       </c>
       <c r="AK33" t="n">
         <v>0</v>
       </c>
       <c r="AL33" t="n">
-        <v>5</v>
+        <v>11.6727</v>
       </c>
       <c r="AM33" t="n">
         <v>0</v>
@@ -53142,7 +53142,7 @@
         <v>0</v>
       </c>
       <c r="AE34" t="n">
-        <v>5</v>
+        <v>1.0875</v>
       </c>
       <c r="AF34" t="n">
         <v>0</v>
@@ -53160,7 +53160,7 @@
         <v>0</v>
       </c>
       <c r="AK34" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AL34" t="n">
         <v>0</v>
@@ -53263,7 +53263,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>10.0875</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -53305,13 +53305,13 @@
         <v>0</v>
       </c>
       <c r="AK35" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AL35" t="n">
         <v>0</v>
       </c>
       <c r="AM35" t="n">
-        <v>9.9125</v>
+        <v>0</v>
       </c>
       <c r="AN35" t="n">
         <v>0</v>
@@ -55770,7 +55770,7 @@
         <v>0</v>
       </c>
       <c r="AK52" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AL52" t="n">
         <v>0</v>
@@ -55915,7 +55915,7 @@
         <v>0</v>
       </c>
       <c r="AK53" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AL53" t="n">
         <v>0</v>
@@ -56060,7 +56060,7 @@
         <v>0</v>
       </c>
       <c r="AK54" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AL54" t="n">
         <v>0</v>
@@ -56205,7 +56205,7 @@
         <v>0</v>
       </c>
       <c r="AK55" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AL55" t="n">
         <v>0</v>
@@ -60078,7 +60078,7 @@
         <v>0</v>
       </c>
       <c r="W82" t="n">
-        <v>0</v>
+        <v>14.975</v>
       </c>
       <c r="X82" t="n">
         <v>0</v>
@@ -60123,10 +60123,10 @@
         <v>0</v>
       </c>
       <c r="AL82" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AM82" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AN82" t="n">
         <v>0</v>
@@ -60247,7 +60247,7 @@
         <v>0</v>
       </c>
       <c r="AE83" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AF83" t="n">
         <v>0</v>
@@ -60265,10 +60265,10 @@
         <v>0</v>
       </c>
       <c r="AK83" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AL83" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AM83" t="n">
         <v>0</v>
@@ -60371,7 +60371,7 @@
         <v>0</v>
       </c>
       <c r="X84" t="n">
-        <v>7.0875</v>
+        <v>0</v>
       </c>
       <c r="Y84" t="n">
         <v>0</v>
@@ -60389,7 +60389,7 @@
         <v>0</v>
       </c>
       <c r="AD84" t="n">
-        <v>6.0875</v>
+        <v>10.75</v>
       </c>
       <c r="AE84" t="n">
         <v>0</v>
@@ -60534,7 +60534,7 @@
         <v>0</v>
       </c>
       <c r="AD85" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AE85" t="n">
         <v>0</v>
@@ -60555,7 +60555,7 @@
         <v>0</v>
       </c>
       <c r="AK85" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AL85" t="n">
         <v>0</v>
@@ -60646,7 +60646,7 @@
         <v>0</v>
       </c>
       <c r="S86" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T86" t="n">
         <v>0</v>
@@ -60655,7 +60655,7 @@
         <v>0</v>
       </c>
       <c r="V86" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="W86" t="n">
         <v>0</v>
@@ -60703,7 +60703,7 @@
         <v>0</v>
       </c>
       <c r="AL86" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AM86" t="n">
         <v>0</v>
@@ -60800,7 +60800,7 @@
         <v>0</v>
       </c>
       <c r="V87" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="W87" t="n">
         <v>0</v>
@@ -60848,7 +60848,7 @@
         <v>0</v>
       </c>
       <c r="AL87" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AM87" t="n">
         <v>0</v>
@@ -60990,7 +60990,7 @@
         <v>0</v>
       </c>
       <c r="AK88" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AL88" t="n">
         <v>0</v>
@@ -61093,7 +61093,7 @@
         <v>0</v>
       </c>
       <c r="W89" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="X89" t="n">
         <v>0</v>
@@ -61141,7 +61141,7 @@
         <v>0</v>
       </c>
       <c r="AM89" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AN89" t="n">
         <v>0</v>
@@ -63558,13 +63558,13 @@
         <v>0</v>
       </c>
       <c r="W106" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="X106" t="n">
         <v>0</v>
       </c>
       <c r="Y106" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="Z106" t="n">
         <v>0</v>
@@ -63724,7 +63724,7 @@
         <v>0</v>
       </c>
       <c r="AD107" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AE107" t="n">
         <v>0</v>
@@ -63869,7 +63869,7 @@
         <v>0</v>
       </c>
       <c r="AD108" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AE108" t="n">
         <v>0</v>
@@ -64014,7 +64014,7 @@
         <v>0</v>
       </c>
       <c r="AD109" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AE109" t="n">
         <v>0</v>
@@ -64348,7 +64348,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>63.6364</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -64366,7 +64366,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>16.3636</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -64475,7 +64475,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>16.2864</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -64484,7 +64484,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>25.9</v>
+        <v>55</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -64493,7 +64493,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>12.8136</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -64620,7 +64620,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -64635,7 +64635,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>35</v>
+        <v>34.9</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -64771,7 +64771,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -64780,7 +64780,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -64928,7 +64928,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>56.3</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -64943,7 +64943,7 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>11.7</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -64961,7 +64961,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>9.3544</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -65064,16 +65064,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>55</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -65209,13 +65209,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>59.9</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -65224,10 +65224,10 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -65348,7 +65348,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>16.2632</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -65366,7 +65366,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -65399,7 +65399,7 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -65490,7 +65490,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>13.3684</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -65502,7 +65502,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -65511,7 +65511,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>21.6316</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -65795,13 +65795,13 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>22.4211</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>12.5789</v>
+        <v>35</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -65931,7 +65931,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>5.3158</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -65946,7 +65946,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>14.6842</v>
+        <v>17.8947</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -65955,7 +65955,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>2.1053</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -66221,7 +66221,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -66230,13 +66230,13 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -66254,7 +66254,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -66360,22 +66360,22 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
         <v>28</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -66508,25 +66508,25 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
         <v>25</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -66656,7 +66656,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>48.6316</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -66689,13 +66689,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>7.3684</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -66704,7 +66704,7 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>2.1895</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -66810,7 +66810,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -66961,7 +66961,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -66976,7 +66976,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>16.9476</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -67085,7 +67085,7 @@
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>49.9</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -67106,7 +67106,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -67121,7 +67121,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -67245,7 +67245,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -67257,7 +67257,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -67278,7 +67278,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>5</v>
+        <v>12.7158</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -67402,7 +67402,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>5.7895</v>
+        <v>13</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -67417,7 +67417,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -67547,10 +67547,10 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>9.7158</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -67680,7 +67680,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>17.9</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -67695,7 +67695,7 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>10.2842</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -67707,13 +67707,13 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>7.7158</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -67846,13 +67846,13 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>16.0526</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -67861,7 +67861,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>9.4316</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -67958,13 +67958,13 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -68160,7 +68160,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -68184,7 +68184,7 @@
         <v>0</v>
       </c>
       <c r="AE28" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AF28" t="n">
         <v>0</v>
@@ -68202,7 +68202,7 @@
         <v>0</v>
       </c>
       <c r="AK28" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AL28" t="n">
         <v>0</v>
@@ -68305,7 +68305,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -68353,7 +68353,7 @@
         <v>0</v>
       </c>
       <c r="AM29" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AN29" t="n">
         <v>0</v>
@@ -68447,7 +68447,7 @@
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -68495,7 +68495,7 @@
         <v>0</v>
       </c>
       <c r="AL30" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="AM30" t="n">
         <v>0</v>
@@ -68595,7 +68595,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -68637,7 +68637,7 @@
         <v>0</v>
       </c>
       <c r="AK31" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AL31" t="n">
         <v>0</v>
@@ -68761,10 +68761,10 @@
         <v>0</v>
       </c>
       <c r="AD32" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AE32" t="n">
-        <v>0</v>
+        <v>1.0875</v>
       </c>
       <c r="AF32" t="n">
         <v>0</v>
@@ -68782,7 +68782,7 @@
         <v>0</v>
       </c>
       <c r="AK32" t="n">
-        <v>5</v>
+        <v>8.9125</v>
       </c>
       <c r="AL32" t="n">
         <v>0</v>
@@ -68906,7 +68906,7 @@
         <v>0</v>
       </c>
       <c r="AD33" t="n">
-        <v>0</v>
+        <v>11.0875</v>
       </c>
       <c r="AE33" t="n">
         <v>0</v>
@@ -68927,13 +68927,13 @@
         <v>0</v>
       </c>
       <c r="AK33" t="n">
-        <v>5.0875</v>
+        <v>0</v>
       </c>
       <c r="AL33" t="n">
         <v>0</v>
       </c>
       <c r="AM33" t="n">
-        <v>6.9125</v>
+        <v>0</v>
       </c>
       <c r="AN33" t="n">
         <v>0</v>
@@ -69033,7 +69033,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>7.0875</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -69075,7 +69075,7 @@
         <v>0</v>
       </c>
       <c r="AL34" t="n">
-        <v>14.9125</v>
+        <v>22</v>
       </c>
       <c r="AM34" t="n">
         <v>0</v>
@@ -69196,7 +69196,7 @@
         <v>0</v>
       </c>
       <c r="AD35" t="n">
-        <v>6.0875</v>
+        <v>0</v>
       </c>
       <c r="AE35" t="n">
         <v>0</v>
@@ -69217,13 +69217,13 @@
         <v>0</v>
       </c>
       <c r="AK35" t="n">
-        <v>13.9125</v>
+        <v>0</v>
       </c>
       <c r="AL35" t="n">
         <v>0</v>
       </c>
       <c r="AM35" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AN35" t="n">
         <v>0</v>
@@ -71631,7 +71631,7 @@
         <v>0</v>
       </c>
       <c r="T52" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="U52" t="n">
         <v>0</v>
@@ -71649,7 +71649,7 @@
         <v>0</v>
       </c>
       <c r="Z52" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AA52" t="n">
         <v>0</v>
@@ -71670,7 +71670,7 @@
         <v>0</v>
       </c>
       <c r="AG52" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AH52" t="n">
         <v>0</v>
@@ -71788,7 +71788,7 @@
         <v>0</v>
       </c>
       <c r="X53" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="Y53" t="n">
         <v>0</v>
@@ -71930,7 +71930,7 @@
         <v>0</v>
       </c>
       <c r="W54" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="X54" t="n">
         <v>0</v>
@@ -72078,7 +72078,7 @@
         <v>0</v>
       </c>
       <c r="X55" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="Y55" t="n">
         <v>0</v>
@@ -75987,10 +75987,10 @@
         <v>0</v>
       </c>
       <c r="V82" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="W82" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="X82" t="n">
         <v>0</v>
@@ -76011,7 +76011,7 @@
         <v>0</v>
       </c>
       <c r="AD82" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AE82" t="n">
         <v>0</v>
@@ -76035,7 +76035,7 @@
         <v>0</v>
       </c>
       <c r="AL82" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AM82" t="n">
         <v>0</v>
@@ -76123,7 +76123,7 @@
         <v>0</v>
       </c>
       <c r="S83" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="T83" t="n">
         <v>0</v>
@@ -76138,7 +76138,7 @@
         <v>0</v>
       </c>
       <c r="X83" t="n">
-        <v>5</v>
+        <v>6.8625</v>
       </c>
       <c r="Y83" t="n">
         <v>0</v>
@@ -76153,7 +76153,7 @@
         <v>0</v>
       </c>
       <c r="AC83" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AD83" t="n">
         <v>0</v>
@@ -76325,10 +76325,10 @@
         <v>0</v>
       </c>
       <c r="AL84" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AM84" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AN84" t="n">
         <v>0</v>
@@ -76467,10 +76467,10 @@
         <v>0</v>
       </c>
       <c r="AK85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL85" t="n">
         <v>6</v>
-      </c>
-      <c r="AL85" t="n">
-        <v>0</v>
       </c>
       <c r="AM85" t="n">
         <v>0</v>
@@ -76591,7 +76591,7 @@
         <v>0</v>
       </c>
       <c r="AD86" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AE86" t="n">
         <v>0</v>
@@ -76612,7 +76612,7 @@
         <v>0</v>
       </c>
       <c r="AK86" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AL86" t="n">
         <v>0</v>
@@ -76757,13 +76757,13 @@
         <v>0</v>
       </c>
       <c r="AK87" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AL87" t="n">
         <v>0</v>
       </c>
       <c r="AM87" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AN87" t="n">
         <v>0</v>
@@ -76860,10 +76860,10 @@
         <v>0</v>
       </c>
       <c r="W88" t="n">
-        <v>10.0875</v>
+        <v>0</v>
       </c>
       <c r="X88" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Y88" t="n">
         <v>0</v>
@@ -76902,10 +76902,10 @@
         <v>0</v>
       </c>
       <c r="AK88" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AL88" t="n">
-        <v>6.9125</v>
+        <v>0</v>
       </c>
       <c r="AM88" t="n">
         <v>0</v>
@@ -76993,7 +76993,7 @@
         <v>0</v>
       </c>
       <c r="S89" t="n">
-        <v>0</v>
+        <v>11.98</v>
       </c>
       <c r="T89" t="n">
         <v>0</v>
@@ -77002,7 +77002,7 @@
         <v>0</v>
       </c>
       <c r="V89" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="W89" t="n">
         <v>0</v>
@@ -77029,7 +77029,7 @@
         <v>0</v>
       </c>
       <c r="AE89" t="n">
-        <v>5</v>
+        <v>1.0875</v>
       </c>
       <c r="AF89" t="n">
         <v>0</v>
@@ -77047,7 +77047,7 @@
         <v>0</v>
       </c>
       <c r="AK89" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AL89" t="n">
         <v>0</v>
@@ -79473,7 +79473,7 @@
         <v>0</v>
       </c>
       <c r="X106" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="Y106" t="n">
         <v>0</v>
@@ -79615,7 +79615,7 @@
         <v>0</v>
       </c>
       <c r="W107" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="X107" t="n">
         <v>0</v>
@@ -79763,7 +79763,7 @@
         <v>0</v>
       </c>
       <c r="X108" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="Y108" t="n">
         <v>0</v>
@@ -79799,7 +79799,7 @@
         <v>0</v>
       </c>
       <c r="AJ108" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AK108" t="n">
         <v>0</v>
@@ -79905,7 +79905,7 @@
         <v>0</v>
       </c>
       <c r="W109" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="X109" t="n">
         <v>0</v>
@@ -80251,16 +80251,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>26.25</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>53.75</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>42.75</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -80402,10 +80402,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -80420,7 +80420,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -80550,7 +80550,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>11.9364</v>
+        <v>35</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -80565,10 +80565,10 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>6.7</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>16.3636</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -80686,7 +80686,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.1864</v>
+        <v>72</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -80695,7 +80695,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.81359999999999</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -80831,13 +80831,13 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>22.4</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -80982,10 +80982,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>54.9</v>
       </c>
       <c r="I7" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -81000,7 +81000,7 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -81112,7 +81112,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -81133,7 +81133,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>60</v>
+        <v>59.9</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -81257,7 +81257,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -81278,7 +81278,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -81408,7 +81408,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -81441,7 +81441,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -81547,19 +81547,19 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>40.1381</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -81583,10 +81583,10 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>4.7619</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -81692,13 +81692,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>33.9474</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -81846,7 +81846,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>8.446300000000001</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -81864,7 +81864,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>6.5537</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -81882,7 +81882,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -81985,7 +81985,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -82012,7 +82012,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -82142,13 +82142,13 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>37.8105</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>19.8947</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -82169,7 +82169,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -82181,7 +82181,7 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>2.1895</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -82293,25 +82293,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
         <v>28</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -82417,7 +82417,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>6.5537</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -82441,10 +82441,10 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L17" t="n">
-        <v>18.4463</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -82562,7 +82562,7 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -82583,7 +82583,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>73.7895</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -82595,7 +82595,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>12.2105</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -82728,7 +82728,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -82867,7 +82867,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -83000,10 +83000,10 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>40.4684</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -83021,7 +83021,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -83048,7 +83048,7 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>9.4316</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -83169,10 +83169,10 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>11.3158</v>
       </c>
       <c r="M22" t="n">
-        <v>14.75</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -83323,7 +83323,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -83335,13 +83335,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>7.7158</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -83441,25 +83441,25 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
         <v>15</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -83586,7 +83586,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -83625,7 +83625,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>12.7158</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -83731,7 +83731,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -83909,16 +83909,16 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="R27" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>9.4316</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -84087,10 +84087,10 @@
         <v>0</v>
       </c>
       <c r="AB28" t="n">
-        <v>0</v>
+        <v>1.0622</v>
       </c>
       <c r="AC28" t="n">
-        <v>5</v>
+        <v>0.1</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -84114,13 +84114,13 @@
         <v>0</v>
       </c>
       <c r="AK28" t="n">
-        <v>9.0875</v>
+        <v>0</v>
       </c>
       <c r="AL28" t="n">
         <v>0</v>
       </c>
       <c r="AM28" t="n">
-        <v>0</v>
+        <v>11.905</v>
       </c>
       <c r="AN28" t="n">
         <v>0</v>
@@ -84235,7 +84235,7 @@
         <v>0</v>
       </c>
       <c r="AC29" t="n">
-        <v>0</v>
+        <v>0.8878</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -84259,10 +84259,10 @@
         <v>0</v>
       </c>
       <c r="AK29" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AL29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AM29" t="n">
         <v>0</v>
@@ -84362,7 +84362,7 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -84386,7 +84386,7 @@
         <v>0</v>
       </c>
       <c r="AE30" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AF30" t="n">
         <v>0</v>
@@ -84404,7 +84404,7 @@
         <v>0</v>
       </c>
       <c r="AK30" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AL30" t="n">
         <v>0</v>
@@ -84507,49 +84507,49 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK31" t="n">
         <v>6</v>
-      </c>
-      <c r="X31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>0</v>
       </c>
       <c r="AL31" t="n">
         <v>0</v>
@@ -84800,7 +84800,7 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -84818,7 +84818,7 @@
         <v>0</v>
       </c>
       <c r="AD33" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AE33" t="n">
         <v>0</v>
@@ -84842,7 +84842,7 @@
         <v>0</v>
       </c>
       <c r="AL33" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AM33" t="n">
         <v>0</v>
@@ -84942,7 +84942,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>15.0875</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -84963,10 +84963,10 @@
         <v>0</v>
       </c>
       <c r="AD34" t="n">
-        <v>6.0875</v>
+        <v>0</v>
       </c>
       <c r="AE34" t="n">
-        <v>0</v>
+        <v>1.0875</v>
       </c>
       <c r="AF34" t="n">
         <v>0</v>
@@ -84984,7 +84984,7 @@
         <v>0</v>
       </c>
       <c r="AK34" t="n">
-        <v>15.9125</v>
+        <v>0</v>
       </c>
       <c r="AL34" t="n">
         <v>0</v>
@@ -85132,10 +85132,10 @@
         <v>0</v>
       </c>
       <c r="AL35" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AM35" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AN35" t="n">
         <v>0</v>
@@ -87570,7 +87570,7 @@
         <v>0</v>
       </c>
       <c r="AC52" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AD52" t="n">
         <v>0</v>
@@ -87709,7 +87709,7 @@
         <v>0</v>
       </c>
       <c r="AA53" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AB53" t="n">
         <v>0</v>
@@ -87739,7 +87739,7 @@
         <v>0</v>
       </c>
       <c r="AK53" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AL53" t="n">
         <v>0</v>
@@ -87875,7 +87875,7 @@
         <v>0</v>
       </c>
       <c r="AH54" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AI54" t="n">
         <v>0</v>
@@ -87884,7 +87884,7 @@
         <v>0</v>
       </c>
       <c r="AK54" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AL54" t="n">
         <v>0</v>
@@ -88026,16 +88026,16 @@
         <v>0</v>
       </c>
       <c r="AJ55" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AK55" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AL55" t="n">
         <v>0</v>
       </c>
       <c r="AM55" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AN55" t="n">
         <v>0</v>
@@ -91944,7 +91944,7 @@
         <v>0</v>
       </c>
       <c r="AK82" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AL82" t="n">
         <v>0</v>
@@ -92089,10 +92089,10 @@
         <v>0</v>
       </c>
       <c r="AK83" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AL83" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AM83" t="n">
         <v>0</v>
@@ -92192,7 +92192,7 @@
         <v>0</v>
       </c>
       <c r="W84" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="X84" t="n">
         <v>0</v>
@@ -92240,7 +92240,7 @@
         <v>0</v>
       </c>
       <c r="AM84" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AN84" t="n">
         <v>0</v>
@@ -92328,7 +92328,7 @@
         <v>0</v>
       </c>
       <c r="T85" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="U85" t="n">
         <v>0</v>
@@ -92343,7 +92343,7 @@
         <v>0</v>
       </c>
       <c r="Y85" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="Z85" t="n">
         <v>0</v>
@@ -92358,7 +92358,7 @@
         <v>0</v>
       </c>
       <c r="AD85" t="n">
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="AE85" t="n">
         <v>0</v>
@@ -92385,7 +92385,7 @@
         <v>0</v>
       </c>
       <c r="AM85" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AN85" t="n">
         <v>0</v>
@@ -92470,10 +92470,10 @@
         <v>0</v>
       </c>
       <c r="S86" t="n">
-        <v>0</v>
+        <v>9.9</v>
       </c>
       <c r="T86" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="U86" t="n">
         <v>0</v>
@@ -92506,7 +92506,7 @@
         <v>0</v>
       </c>
       <c r="AE86" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AF86" t="n">
         <v>0</v>
@@ -92527,7 +92527,7 @@
         <v>0</v>
       </c>
       <c r="AL86" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AM86" t="n">
         <v>0</v>
@@ -92627,10 +92627,10 @@
         <v>0</v>
       </c>
       <c r="W87" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="X87" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Y87" t="n">
         <v>0</v>
@@ -92648,7 +92648,7 @@
         <v>0</v>
       </c>
       <c r="AD87" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AE87" t="n">
         <v>0</v>
@@ -92769,7 +92769,7 @@
         <v>0</v>
       </c>
       <c r="V88" t="n">
-        <v>5.9125</v>
+        <v>0</v>
       </c>
       <c r="W88" t="n">
         <v>0</v>
@@ -92793,7 +92793,7 @@
         <v>0</v>
       </c>
       <c r="AD88" t="n">
-        <v>6.0875</v>
+        <v>0</v>
       </c>
       <c r="AE88" t="n">
         <v>0</v>
@@ -92814,13 +92814,13 @@
         <v>0</v>
       </c>
       <c r="AK88" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AL88" t="n">
         <v>0</v>
       </c>
       <c r="AM88" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AN88" t="n">
         <v>0</v>
@@ -92917,7 +92917,7 @@
         <v>0</v>
       </c>
       <c r="W89" t="n">
-        <v>6.0875</v>
+        <v>0</v>
       </c>
       <c r="X89" t="n">
         <v>0</v>
@@ -92962,7 +92962,7 @@
         <v>0</v>
       </c>
       <c r="AL89" t="n">
-        <v>13.9125</v>
+        <v>20</v>
       </c>
       <c r="AM89" t="n">
         <v>0</v>
@@ -95382,7 +95382,7 @@
         <v>0</v>
       </c>
       <c r="W106" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="X106" t="n">
         <v>0</v>
@@ -95394,7 +95394,7 @@
         <v>0</v>
       </c>
       <c r="AA106" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AB106" t="n">
         <v>0</v>
@@ -95536,7 +95536,7 @@
         <v>0</v>
       </c>
       <c r="Z107" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AA107" t="n">
         <v>0</v>
@@ -95681,7 +95681,7 @@
         <v>0</v>
       </c>
       <c r="Z108" t="n">
-        <v>0</v>
+        <v>0.3667</v>
       </c>
       <c r="AA108" t="n">
         <v>0</v>
@@ -95838,7 +95838,7 @@
         <v>0</v>
       </c>
       <c r="AD109" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AE109" t="n">
         <v>0</v>
@@ -95850,7 +95850,7 @@
         <v>0</v>
       </c>
       <c r="AH109" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AI109" t="n">
         <v>0</v>
@@ -96163,7 +96163,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -96172,7 +96172,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>68.3</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -96187,7 +96187,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>11.7</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -96308,16 +96308,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>42.1864</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="I3" t="n">
-        <v>12.8136</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -96453,13 +96453,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>9.0136</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>25.9864</v>
+        <v>35</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -96604,10 +96604,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>72</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -96749,10 +96749,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="I6" t="n">
-        <v>51.6364</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -96770,7 +96770,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>16.3636</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -96894,10 +96894,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>55</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -97030,7 +97030,7 @@
         <v>46</v>
       </c>
       <c r="E8" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -97051,7 +97051,7 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -97169,7 +97169,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>6.2488</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -97184,13 +97184,13 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>18.7512</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>24.9</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -97220,7 +97220,7 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -97335,7 +97335,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -97474,13 +97474,13 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
         <v>45</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -97610,7 +97610,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -97628,7 +97628,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -97643,7 +97643,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -97773,7 +97773,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -97788,7 +97788,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -97906,7 +97906,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -97915,7 +97915,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -98045,22 +98045,22 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
         <v>40</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -98184,7 +98184,7 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>28</v>
+        <v>25.8105</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -98238,7 +98238,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>2.1895</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -98329,7 +98329,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -98350,7 +98350,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -98480,7 +98480,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>9.9474</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -98489,19 +98489,19 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>14.4737</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>56.0526</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -98525,7 +98525,7 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>9.3316</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -98619,28 +98619,28 @@
         <v>1</v>
       </c>
       <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
         <v>55</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -98764,7 +98764,7 @@
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -98779,7 +98779,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -98788,7 +98788,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -98909,7 +98909,7 @@
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>9.75</v>
+        <v>50</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -98921,7 +98921,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -98951,7 +98951,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>15.25</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -99063,34 +99063,34 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
         <v>15</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -99208,7 +99208,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -99374,7 +99374,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -99386,7 +99386,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -99516,7 +99516,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -99534,13 +99534,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>7.3684</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>9.4316</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -99664,7 +99664,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>9.2842</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -99682,13 +99682,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>12.7158</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -99788,7 +99788,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -100020,7 +100020,7 @@
         <v>0</v>
       </c>
       <c r="AI28" t="n">
-        <v>0</v>
+        <v>0.324</v>
       </c>
       <c r="AJ28" t="n">
         <v>0</v>
@@ -100029,7 +100029,7 @@
         <v>0</v>
       </c>
       <c r="AL28" t="n">
-        <v>15</v>
+        <v>14.676</v>
       </c>
       <c r="AM28" t="n">
         <v>0</v>
@@ -100129,10 +100129,10 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -100150,7 +100150,7 @@
         <v>0</v>
       </c>
       <c r="AD29" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AE29" t="n">
         <v>0</v>
@@ -100262,7 +100262,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>12.08</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -100274,7 +100274,7 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -100295,7 +100295,7 @@
         <v>0</v>
       </c>
       <c r="AD30" t="n">
-        <v>6.0875</v>
+        <v>0</v>
       </c>
       <c r="AE30" t="n">
         <v>0</v>
@@ -100316,7 +100316,7 @@
         <v>0</v>
       </c>
       <c r="AK30" t="n">
-        <v>7.9125</v>
+        <v>0</v>
       </c>
       <c r="AL30" t="n">
         <v>0</v>
@@ -100416,55 +100416,55 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL31" t="n">
         <v>6</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
-      </c>
-      <c r="X31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL31" t="n">
-        <v>0</v>
       </c>
       <c r="AM31" t="n">
         <v>0</v>
@@ -100564,7 +100564,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -100585,7 +100585,7 @@
         <v>0</v>
       </c>
       <c r="AD32" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AE32" t="n">
         <v>0</v>
@@ -100612,7 +100612,7 @@
         <v>0</v>
       </c>
       <c r="AM32" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AN32" t="n">
         <v>0</v>
@@ -100754,7 +100754,7 @@
         <v>0</v>
       </c>
       <c r="AL33" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AM33" t="n">
         <v>0</v>
@@ -100854,10 +100854,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>5.0875</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -100878,7 +100878,7 @@
         <v>0</v>
       </c>
       <c r="AE34" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AF34" t="n">
         <v>0</v>
@@ -100896,13 +100896,13 @@
         <v>0</v>
       </c>
       <c r="AK34" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AL34" t="n">
         <v>0</v>
       </c>
       <c r="AM34" t="n">
-        <v>6.9125</v>
+        <v>0</v>
       </c>
       <c r="AN34" t="n">
         <v>0</v>
@@ -101023,7 +101023,7 @@
         <v>0</v>
       </c>
       <c r="AE35" t="n">
-        <v>0</v>
+        <v>1.0875</v>
       </c>
       <c r="AF35" t="n">
         <v>0</v>
@@ -101041,7 +101041,7 @@
         <v>0</v>
       </c>
       <c r="AK35" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AL35" t="n">
         <v>0</v>
@@ -103494,7 +103494,7 @@
         <v>0</v>
       </c>
       <c r="AG52" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AH52" t="n">
         <v>0</v>
@@ -103609,7 +103609,7 @@
         <v>0</v>
       </c>
       <c r="W53" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="X53" t="n">
         <v>0</v>
@@ -103757,7 +103757,7 @@
         <v>0</v>
       </c>
       <c r="X54" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="Y54" t="n">
         <v>0</v>
@@ -103902,7 +103902,7 @@
         <v>0</v>
       </c>
       <c r="X55" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="Y55" t="n">
         <v>0</v>
@@ -107826,7 +107826,7 @@
         <v>0</v>
       </c>
       <c r="AA82" t="n">
-        <v>0</v>
+        <v>1.0545</v>
       </c>
       <c r="AB82" t="n">
         <v>0</v>
@@ -107835,10 +107835,10 @@
         <v>0</v>
       </c>
       <c r="AD82" t="n">
-        <v>6.0875</v>
+        <v>0</v>
       </c>
       <c r="AE82" t="n">
-        <v>0</v>
+        <v>1.0875</v>
       </c>
       <c r="AF82" t="n">
         <v>0</v>
@@ -107856,13 +107856,13 @@
         <v>0</v>
       </c>
       <c r="AK82" t="n">
-        <v>0</v>
+        <v>12.858</v>
       </c>
       <c r="AL82" t="n">
         <v>0</v>
       </c>
       <c r="AM82" t="n">
-        <v>8.9125</v>
+        <v>0</v>
       </c>
       <c r="AN82" t="n">
         <v>0</v>
@@ -107947,7 +107947,7 @@
         <v>0</v>
       </c>
       <c r="S83" t="n">
-        <v>0</v>
+        <v>4.2625</v>
       </c>
       <c r="T83" t="n">
         <v>0</v>
@@ -107962,7 +107962,7 @@
         <v>0</v>
       </c>
       <c r="X83" t="n">
-        <v>5</v>
+        <v>5.7375</v>
       </c>
       <c r="Y83" t="n">
         <v>0</v>
@@ -107980,7 +107980,7 @@
         <v>0</v>
       </c>
       <c r="AD83" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AE83" t="n">
         <v>0</v>
@@ -108101,13 +108101,13 @@
         <v>0</v>
       </c>
       <c r="V84" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="W84" t="n">
         <v>0</v>
       </c>
       <c r="X84" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Y84" t="n">
         <v>0</v>
@@ -108291,13 +108291,13 @@
         <v>0</v>
       </c>
       <c r="AK85" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AL85" t="n">
         <v>0</v>
       </c>
       <c r="AM85" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AN85" t="n">
         <v>0</v>
@@ -108394,7 +108394,7 @@
         <v>0</v>
       </c>
       <c r="W86" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="X86" t="n">
         <v>0</v>
@@ -108415,7 +108415,7 @@
         <v>0</v>
       </c>
       <c r="AD86" t="n">
-        <v>0</v>
+        <v>4.858</v>
       </c>
       <c r="AE86" t="n">
         <v>0</v>
@@ -108436,7 +108436,7 @@
         <v>0</v>
       </c>
       <c r="AK86" t="n">
-        <v>5</v>
+        <v>5.142</v>
       </c>
       <c r="AL86" t="n">
         <v>0</v>
@@ -108581,10 +108581,10 @@
         <v>0</v>
       </c>
       <c r="AK87" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AL87" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AM87" t="n">
         <v>0</v>
@@ -108684,7 +108684,7 @@
         <v>0</v>
       </c>
       <c r="W88" t="n">
-        <v>10.0875</v>
+        <v>0</v>
       </c>
       <c r="X88" t="n">
         <v>0</v>
@@ -108708,7 +108708,7 @@
         <v>0</v>
       </c>
       <c r="AE88" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AF88" t="n">
         <v>0</v>
@@ -108729,7 +108729,7 @@
         <v>0</v>
       </c>
       <c r="AL88" t="n">
-        <v>6.9125</v>
+        <v>22</v>
       </c>
       <c r="AM88" t="n">
         <v>0</v>
@@ -108871,7 +108871,7 @@
         <v>0</v>
       </c>
       <c r="AK89" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AL89" t="n">
         <v>0</v>
@@ -111297,7 +111297,7 @@
         <v>0</v>
       </c>
       <c r="X106" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="Y106" t="n">
         <v>0</v>
@@ -111442,7 +111442,7 @@
         <v>0</v>
       </c>
       <c r="X107" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="Y107" t="n">
         <v>0</v>
@@ -111584,7 +111584,7 @@
         <v>0</v>
       </c>
       <c r="W108" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="X108" t="n">
         <v>0</v>
@@ -111729,7 +111729,7 @@
         <v>0</v>
       </c>
       <c r="W109" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="X109" t="n">
         <v>0</v>
